--- a/BookdownData/LeafletData.xlsx
+++ b/BookdownData/LeafletData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6AAC6-7BA0-461C-BB7C-EE14102A93E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D133B-B9B5-44C0-BFDF-FBCE6789C9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GroßreicheDaten" sheetId="1" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1076,6 +1076,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -3540,8 +3541,8 @@
   </sheetPr>
   <dimension ref="A1:BD186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="AB4" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8:AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3817,13 +3818,13 @@
         <v>6.76</v>
       </c>
       <c r="AI2" s="2">
-        <v>40.93</v>
+        <v>38.56</v>
       </c>
       <c r="AJ2" s="2">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="2">
-        <v>40.950000000000003</v>
+        <v>38.56</v>
       </c>
       <c r="AL2" s="2">
         <v>0</v>
@@ -3987,16 +3988,16 @@
         <v>7.14</v>
       </c>
       <c r="AI3" s="2">
-        <v>38.299999999999997</v>
+        <v>37.28</v>
       </c>
       <c r="AJ3" s="2">
-        <v>2.2400000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK3" s="2">
-        <v>40.93</v>
+        <v>37.28</v>
       </c>
       <c r="AL3" s="2">
-        <v>3.26</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM3" s="2">
         <v>8.06</v>
@@ -4163,10 +4164,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="AK4" s="2">
-        <v>38.299999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AL4" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AM4" s="2">
         <v>6.94</v>
@@ -4321,10 +4322,10 @@
         <v>10.67</v>
       </c>
       <c r="AG5" s="2">
-        <v>38.47</v>
+        <v>38.26</v>
       </c>
       <c r="AH5" s="2">
-        <v>9.66</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="2">
         <v>35.06</v>
@@ -4333,10 +4334,10 @@
         <v>3.79</v>
       </c>
       <c r="AK5" s="2">
-        <v>36.299999999999997</v>
+        <v>35.06</v>
       </c>
       <c r="AL5" s="2">
-        <v>2.5299999999999998</v>
+        <v>3.79</v>
       </c>
       <c r="AM5" s="2">
         <v>5.05</v>
@@ -4503,10 +4504,10 @@
         <v>5.2</v>
       </c>
       <c r="AK6" s="2">
-        <v>35.06</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AL6" s="2">
-        <v>3.79</v>
+        <v>5.2</v>
       </c>
       <c r="AM6" s="2">
         <v>4.16</v>
@@ -4668,11 +4669,11 @@
       <c r="AJ7" s="6">
         <v>5.84</v>
       </c>
-      <c r="AK7" s="2">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>5.2</v>
+      <c r="AK7" s="6">
+        <v>35.69</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>5.84</v>
       </c>
       <c r="AM7" s="2">
         <v>2.89</v>
@@ -4833,16 +4834,16 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="AI8" s="2">
-        <v>36.21</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="AJ8" s="2">
-        <v>6.14</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>35.69</v>
-      </c>
-      <c r="AL8" s="6">
-        <v>5.84</v>
+        <v>6.05</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>6.05</v>
       </c>
       <c r="AM8" s="2">
         <v>1.55</v>
@@ -5003,16 +5004,16 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="AI9" s="2">
-        <v>36.090000000000003</v>
+        <v>35.6</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6.72</v>
+        <v>6.18</v>
       </c>
       <c r="AK9" s="2">
-        <v>35.549999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="AL9" s="2">
-        <v>6.05</v>
+        <v>6.18</v>
       </c>
       <c r="AM9" s="2">
         <v>0.65</v>
@@ -5173,16 +5174,16 @@
         <v>10.92</v>
       </c>
       <c r="AI10" s="2">
-        <v>35.799999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="AJ10" s="2">
-        <v>7.02</v>
+        <v>6.22</v>
       </c>
       <c r="AK10" s="2">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="AL10" s="2">
-        <v>6.18</v>
+        <v>6.22</v>
       </c>
       <c r="AM10" s="2">
         <v>0</v>
@@ -5337,16 +5338,16 @@
         <v>12</v>
       </c>
       <c r="AI11" s="2">
-        <v>35.6</v>
+        <v>35.47</v>
       </c>
       <c r="AJ11" s="2">
-        <v>7.11</v>
+        <v>6.37</v>
       </c>
       <c r="AK11" s="2">
-        <v>35.5</v>
+        <v>35.47</v>
       </c>
       <c r="AL11" s="2">
-        <v>6.22</v>
+        <v>6.37</v>
       </c>
       <c r="AM11" s="2">
         <v>0</v>
@@ -5485,16 +5486,16 @@
         <v>12.68</v>
       </c>
       <c r="AI12" s="2">
-        <v>35.17</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="AJ12" s="2">
-        <v>7.93</v>
+        <v>6.55</v>
       </c>
       <c r="AK12" s="2">
-        <v>35.47</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="AL12" s="2">
-        <v>6.37</v>
+        <v>6.55</v>
       </c>
       <c r="AM12" s="2">
         <v>2.0499999999999998</v>
@@ -5639,16 +5640,16 @@
         <v>13.3</v>
       </c>
       <c r="AI13" s="2">
-        <v>34.840000000000003</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="AJ13" s="2">
-        <v>8.51</v>
+        <v>6.65</v>
       </c>
       <c r="AK13" s="2">
-        <v>35.340000000000003</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="AL13" s="2">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="AM13" s="2">
         <v>2.14</v>
@@ -5791,16 +5792,16 @@
         <v>13.66</v>
       </c>
       <c r="AI14" s="2">
-        <v>34.9</v>
+        <v>35.18</v>
       </c>
       <c r="AJ14" s="2">
-        <v>8.9</v>
+        <v>6.96</v>
       </c>
       <c r="AK14" s="2">
-        <v>35.369999999999997</v>
+        <v>35.18</v>
       </c>
       <c r="AL14" s="2">
-        <v>6.65</v>
+        <v>6.96</v>
       </c>
       <c r="AM14" s="2">
         <v>2.3199999999999998</v>
@@ -5939,16 +5940,16 @@
         <v>14.36</v>
       </c>
       <c r="AI15" s="2">
-        <v>35.25</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="AJ15" s="2">
-        <v>9.15</v>
+        <v>7.28</v>
       </c>
       <c r="AK15" s="2">
-        <v>35.18</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="AL15" s="2">
-        <v>6.96</v>
+        <v>7.28</v>
       </c>
       <c r="AM15" s="2">
         <v>2.46</v>
@@ -6071,16 +6072,16 @@
         <v>14.25</v>
       </c>
       <c r="AI16" s="2">
-        <v>35.590000000000003</v>
+        <v>34.97</v>
       </c>
       <c r="AJ16" s="2">
-        <v>9.19</v>
+        <v>7.38</v>
       </c>
       <c r="AK16" s="2">
-        <v>35.090000000000003</v>
+        <v>34.97</v>
       </c>
       <c r="AL16" s="2">
-        <v>7.28</v>
+        <v>7.38</v>
       </c>
       <c r="AM16" s="2">
         <v>2.68</v>
@@ -6204,13 +6205,17 @@
       </c>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AI17" s="2">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>7.4</v>
+      </c>
       <c r="AK17" s="2">
-        <v>34.97</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="AL17" s="2">
-        <v>7.38</v>
+        <v>7.4</v>
       </c>
       <c r="AM17" s="2">
         <v>2.87</v>
@@ -6339,16 +6344,16 @@
         <v>15.06</v>
       </c>
       <c r="AI18" s="2">
-        <v>35.799999999999997</v>
+        <v>34.57</v>
       </c>
       <c r="AJ18" s="2">
-        <v>9.35</v>
+        <v>7.74</v>
       </c>
       <c r="AK18" s="2">
-        <v>34.840000000000003</v>
+        <v>34.57</v>
       </c>
       <c r="AL18" s="2">
-        <v>7.4</v>
+        <v>7.74</v>
       </c>
       <c r="AM18" s="2">
         <v>3.01</v>
@@ -6483,16 +6488,16 @@
         <v>16.36</v>
       </c>
       <c r="AI19" s="2">
-        <v>36.090000000000003</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="AJ19" s="2">
-        <v>9.2899999999999991</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="AK19" s="2">
-        <v>34.57</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="AL19" s="2">
-        <v>7.74</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="AM19" s="2">
         <v>3.18</v>
@@ -6626,17 +6631,17 @@
       <c r="AH20" s="2">
         <v>17.13</v>
       </c>
-      <c r="AI20" s="11">
-        <v>36.46</v>
-      </c>
-      <c r="AJ20" s="11">
-        <v>9.4499999999999993</v>
+      <c r="AI20" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>8.32</v>
       </c>
       <c r="AK20" s="2">
-        <v>34.549999999999997</v>
+        <v>34.4</v>
       </c>
       <c r="AL20" s="2">
-        <v>8.1959999999999997</v>
+        <v>8.32</v>
       </c>
       <c r="AM20" s="2">
         <v>3.37</v>
@@ -6765,16 +6770,16 @@
         <v>17.25</v>
       </c>
       <c r="AI21" s="2">
-        <v>37.22</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="AJ21" s="2">
-        <v>9.3699999999999992</v>
+        <v>8.48</v>
       </c>
       <c r="AK21" s="2">
-        <v>34.4</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="AL21" s="2">
-        <v>8.32</v>
+        <v>8.48</v>
       </c>
       <c r="AM21" s="2">
         <v>3.4</v>
@@ -6899,16 +6904,16 @@
         <v>16.77</v>
       </c>
       <c r="AI22" s="2">
-        <v>38.47</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AJ22" s="2">
-        <v>9.66</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="AK22" s="2">
-        <v>34.340000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AL22" s="2">
-        <v>8.48</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="AM22" s="2">
         <v>3.6</v>
@@ -7029,16 +7034,16 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2">
-        <v>39.28</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="AJ23" s="2">
-        <v>8.36</v>
+        <v>8.86</v>
       </c>
       <c r="AK23" s="2">
-        <v>34.200000000000003</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="AL23" s="2">
-        <v>8.6300000000000008</v>
+        <v>8.86</v>
       </c>
       <c r="AM23" s="2">
         <v>3.88</v>
@@ -7158,17 +7163,17 @@
       </c>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="2">
-        <v>40.676000000000002</v>
-      </c>
-      <c r="AJ24" s="2">
-        <v>7.14</v>
-      </c>
-      <c r="AK24" s="2">
-        <v>34.159999999999997</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>8.86</v>
+      <c r="AI24" s="9">
+        <v>33.93</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>9.02</v>
+      </c>
+      <c r="AK24" s="9">
+        <v>33.93</v>
+      </c>
+      <c r="AL24" s="9">
+        <v>9.02</v>
       </c>
       <c r="AM24" s="2">
         <v>3.98</v>
@@ -7289,17 +7294,17 @@
       </c>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="2">
-        <v>40.93</v>
-      </c>
-      <c r="AJ25" s="2">
-        <v>6.76</v>
-      </c>
-      <c r="AK25" s="9">
-        <v>33.93</v>
-      </c>
-      <c r="AL25" s="9">
-        <v>9.02</v>
+      <c r="AI25" s="19">
+        <v>34.9</v>
+      </c>
+      <c r="AJ25" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>33.74</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>8.93</v>
       </c>
       <c r="AM25" s="2">
         <v>4.32</v>
@@ -7421,11 +7426,17 @@
       </c>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
+      <c r="AI26" s="2">
+        <v>35.25</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>9.15</v>
+      </c>
       <c r="AK26" s="2">
-        <v>33.74</v>
+        <v>33.57</v>
       </c>
       <c r="AL26" s="2">
-        <v>8.93</v>
+        <v>8.99</v>
       </c>
       <c r="AM26" s="2">
         <v>4.5</v>
@@ -7537,11 +7548,17 @@
       </c>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
+      <c r="AI27" s="2">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>9.19</v>
+      </c>
       <c r="AK27" s="2">
-        <v>33.57</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="AL27" s="2">
-        <v>8.99</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="AM27" s="2">
         <v>4.63</v>
@@ -7651,11 +7668,17 @@
       </c>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
+      <c r="AI28" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>9.35</v>
+      </c>
       <c r="AK28" s="2">
-        <v>33.479999999999997</v>
+        <v>33.36</v>
       </c>
       <c r="AL28" s="2">
-        <v>8.9700000000000006</v>
+        <v>9.01</v>
       </c>
       <c r="AM28" s="2">
         <v>4.71</v>
@@ -7761,11 +7784,17 @@
       </c>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
+      <c r="AI29" s="2">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>9.2899999999999991</v>
+      </c>
       <c r="AK29" s="2">
-        <v>33.36</v>
+        <v>32.76</v>
       </c>
       <c r="AL29" s="2">
-        <v>9.01</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="AM29" s="2">
         <v>4.95</v>
@@ -7871,11 +7900,17 @@
       </c>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
+      <c r="AI30" s="11">
+        <v>36.46</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>9.4499999999999993</v>
+      </c>
       <c r="AK30" s="2">
-        <v>32.76</v>
+        <v>32.22</v>
       </c>
       <c r="AL30" s="2">
-        <v>8.9700000000000006</v>
+        <v>9.19</v>
       </c>
       <c r="AM30" s="2">
         <v>5.07</v>
@@ -7977,11 +8012,17 @@
       </c>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
+      <c r="AI31" s="2">
+        <v>37.22</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>9.3699999999999992</v>
+      </c>
       <c r="AK31" s="2">
-        <v>32.22</v>
+        <v>31.87</v>
       </c>
       <c r="AL31" s="2">
-        <v>9.19</v>
+        <v>9.33</v>
       </c>
       <c r="AM31" s="2">
         <v>5.08</v>
@@ -8077,11 +8118,17 @@
       </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
+      <c r="AI32" s="2">
+        <v>38.26</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>9</v>
+      </c>
       <c r="AK32" s="2">
-        <v>31.87</v>
+        <v>31.45</v>
       </c>
       <c r="AL32" s="2">
-        <v>9.33</v>
+        <v>9.36</v>
       </c>
       <c r="AM32" s="2">
         <v>5.42</v>
@@ -8173,11 +8220,17 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
+      <c r="AI33" s="2">
+        <v>39.28</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>8.36</v>
+      </c>
       <c r="AK33" s="2">
-        <v>31.45</v>
+        <v>30.17</v>
       </c>
       <c r="AL33" s="2">
-        <v>9.36</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AM33" s="2">
         <v>6.02</v>
@@ -8263,11 +8316,17 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
+      <c r="AI34" s="2">
+        <v>40.676000000000002</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>7.14</v>
+      </c>
       <c r="AK34" s="2">
-        <v>30.17</v>
+        <v>28.39</v>
       </c>
       <c r="AL34" s="2">
-        <v>9.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="AM34" s="2">
         <v>6.22</v>
@@ -8349,11 +8408,17 @@
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
+      <c r="AI35" s="2">
+        <v>40.93</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>6.76</v>
+      </c>
       <c r="AK35" s="2">
-        <v>28.39</v>
+        <v>27.49</v>
       </c>
       <c r="AL35" s="2">
-        <v>8.5</v>
+        <v>7.43</v>
       </c>
       <c r="AM35" s="2">
         <v>6.5</v>
@@ -8435,11 +8500,17 @@
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
+      <c r="AI36" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>0</v>
+      </c>
       <c r="AK36" s="2">
-        <v>27.49</v>
+        <v>27</v>
       </c>
       <c r="AL36" s="2">
-        <v>7.43</v>
+        <v>7</v>
       </c>
       <c r="AM36" s="2">
         <v>6.69</v>
@@ -8520,10 +8591,10 @@
         <v>10.47</v>
       </c>
       <c r="AK37" s="2">
-        <v>27</v>
+        <v>26.92</v>
       </c>
       <c r="AL37" s="2">
-        <v>7</v>
+        <v>6.45</v>
       </c>
       <c r="AM37" s="2">
         <v>6.97</v>
@@ -8598,10 +8669,10 @@
         <v>10.119999999999999</v>
       </c>
       <c r="AK38" s="2">
-        <v>26.92</v>
+        <v>28.76</v>
       </c>
       <c r="AL38" s="2">
-        <v>6.45</v>
+        <v>6.34</v>
       </c>
       <c r="AM38" s="2">
         <v>7.16</v>
@@ -8676,10 +8747,10 @@
         <v>9.98</v>
       </c>
       <c r="AK39" s="2">
-        <v>28.76</v>
+        <v>30.08</v>
       </c>
       <c r="AL39" s="2">
-        <v>6.34</v>
+        <v>5.64</v>
       </c>
       <c r="AM39" s="2">
         <v>7.51</v>
@@ -8754,10 +8825,10 @@
         <v>9.94</v>
       </c>
       <c r="AK40" s="2">
-        <v>30.08</v>
+        <v>30.07</v>
       </c>
       <c r="AL40" s="2">
-        <v>5.64</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AM40" s="2">
         <v>7.64</v>
@@ -8832,10 +8903,10 @@
         <v>9.51</v>
       </c>
       <c r="AK41" s="2">
-        <v>30.07</v>
+        <v>29.36</v>
       </c>
       <c r="AL41" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.18</v>
       </c>
       <c r="AM41" s="2">
         <v>7.82</v>
@@ -8912,10 +8983,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AK42" s="2">
-        <v>29.36</v>
+        <v>29</v>
       </c>
       <c r="AL42" s="2">
-        <v>4.18</v>
+        <v>4.3769999999999998</v>
       </c>
       <c r="AM42" s="2">
         <v>8</v>
@@ -8992,10 +9063,10 @@
         <v>9.24</v>
       </c>
       <c r="AK43" s="2">
-        <v>29</v>
+        <v>27.2</v>
       </c>
       <c r="AL43" s="2">
-        <v>4.3769999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="AM43" s="2">
         <v>8.25</v>
@@ -9072,10 +9143,10 @@
         <v>8.93</v>
       </c>
       <c r="AK44" s="2">
-        <v>27.2</v>
+        <v>27.16</v>
       </c>
       <c r="AL44" s="2">
-        <v>3.6</v>
+        <v>3.39</v>
       </c>
       <c r="AM44" s="2">
         <v>8.4</v>
@@ -9146,10 +9217,10 @@
         <v>9.69</v>
       </c>
       <c r="AK45" s="2">
-        <v>27.16</v>
+        <v>27.17</v>
       </c>
       <c r="AL45" s="2">
-        <v>3.39</v>
+        <v>2.89</v>
       </c>
       <c r="AM45" s="2">
         <v>8.44</v>
@@ -9214,10 +9285,10 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AK46" s="2">
-        <v>27.17</v>
+        <v>27.61</v>
       </c>
       <c r="AL46" s="2">
-        <v>2.89</v>
+        <v>2.42</v>
       </c>
       <c r="AM46" s="2">
         <v>8.57</v>
@@ -9280,10 +9351,10 @@
         <v>25.3</v>
       </c>
       <c r="AK47" s="2">
-        <v>27.61</v>
+        <v>27.856000000000002</v>
       </c>
       <c r="AL47" s="2">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="AM47" s="2">
         <v>8.57</v>
@@ -9340,10 +9411,10 @@
         <v>18.170000000000002</v>
       </c>
       <c r="AK48" s="2">
-        <v>27.856000000000002</v>
+        <v>28.14</v>
       </c>
       <c r="AL48" s="2">
-        <v>1.94</v>
+        <v>0.65</v>
       </c>
       <c r="AM48" s="2">
         <v>8.69</v>
@@ -9400,10 +9471,10 @@
         <v>18.52</v>
       </c>
       <c r="AK49" s="2">
-        <v>28.14</v>
+        <v>27.99</v>
       </c>
       <c r="AL49" s="2">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="AM49" s="2">
         <v>8.83</v>
@@ -9458,12 +9529,6 @@
       </c>
       <c r="R50" s="2">
         <v>19.079999999999998</v>
-      </c>
-      <c r="AK50" s="2">
-        <v>27.99</v>
-      </c>
-      <c r="AL50" s="2">
-        <v>0.03</v>
       </c>
       <c r="AM50" s="2">
         <v>9.07</v>
@@ -11083,7 +11148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95E23A-21CD-408C-A5D1-9E386EC0EC9F}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F36" sqref="F36"/>
     </sheetView>

--- a/BookdownData/LeafletData.xlsx
+++ b/BookdownData/LeafletData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D133B-B9B5-44C0-BFDF-FBCE6789C9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D8058-0547-4C4F-A0AD-4FD1A420EDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3541,8 +3541,8 @@
   </sheetPr>
   <dimension ref="A1:BD186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB4" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8:AJ24"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4515,8 +4515,12 @@
       <c r="AN6" s="2">
         <v>21.06</v>
       </c>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
+      <c r="AO6" s="2">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>15.06</v>
+      </c>
       <c r="AQ6" s="2">
         <v>13.99</v>
       </c>
@@ -4682,10 +4686,10 @@
         <v>21.46</v>
       </c>
       <c r="AO7" s="2">
-        <v>39.479999999999997</v>
+        <v>39.18</v>
       </c>
       <c r="AP7" s="2">
-        <v>15.06</v>
+        <v>16.36</v>
       </c>
       <c r="AQ7" s="2">
         <v>14.14</v>
@@ -4816,10 +4820,10 @@
         <v>22.96</v>
       </c>
       <c r="AC8" s="2">
-        <v>26.92</v>
+        <v>27.49</v>
       </c>
       <c r="AD8" s="2">
-        <v>6.45</v>
+        <v>7.43</v>
       </c>
       <c r="AE8" s="2">
         <v>14.44</v>
@@ -4852,10 +4856,10 @@
         <v>21.37</v>
       </c>
       <c r="AO8" s="2">
-        <v>39.18</v>
+        <v>40.07</v>
       </c>
       <c r="AP8" s="2">
-        <v>16.36</v>
+        <v>17.13</v>
       </c>
       <c r="AQ8" s="2">
         <v>13.62</v>
@@ -4986,10 +4990,10 @@
         <v>24.88</v>
       </c>
       <c r="AC9" s="2">
-        <v>27</v>
+        <v>27.25</v>
       </c>
       <c r="AD9" s="2">
-        <v>7</v>
+        <v>7.87</v>
       </c>
       <c r="AE9" s="2">
         <v>13.83</v>
@@ -5021,11 +5025,11 @@
       <c r="AN9" s="2">
         <v>21.75</v>
       </c>
-      <c r="AO9" s="2">
-        <v>40.07</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>17.13</v>
+      <c r="AO9" s="10">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>17.25</v>
       </c>
       <c r="AQ9" s="2">
         <v>13.72</v>
@@ -5156,10 +5160,10 @@
         <v>25.04</v>
       </c>
       <c r="AC10" s="2">
-        <v>27.49</v>
+        <v>26.28</v>
       </c>
       <c r="AD10" s="2">
-        <v>7.43</v>
+        <v>8.4</v>
       </c>
       <c r="AE10" s="2">
         <v>13.79</v>
@@ -5191,11 +5195,11 @@
       <c r="AN10" s="2">
         <v>22.17</v>
       </c>
-      <c r="AO10" s="10">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="AP10" s="10">
-        <v>17.25</v>
+      <c r="AO10" s="6">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="AP10" s="6">
+        <v>17.62</v>
       </c>
       <c r="AQ10" s="2">
         <v>13.71</v>
@@ -5320,10 +5324,10 @@
         <v>24.97</v>
       </c>
       <c r="AC11" s="2">
-        <v>27.25</v>
+        <v>25.6</v>
       </c>
       <c r="AD11" s="2">
-        <v>7.87</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AE11" s="2">
         <v>14.5</v>
@@ -5355,11 +5359,11 @@
       <c r="AN11" s="2">
         <v>30.72</v>
       </c>
-      <c r="AO11" s="6">
-        <v>39.520000000000003</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>17.62</v>
+      <c r="AO11" s="2">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>19.64</v>
       </c>
       <c r="AQ11" s="2">
         <v>13.78</v>
@@ -5474,10 +5478,16 @@
         <v>25.01</v>
       </c>
       <c r="AC12" s="2">
-        <v>26.28</v>
+        <v>25.22</v>
       </c>
       <c r="AD12" s="2">
-        <v>8.4</v>
+        <v>8.57</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>14.72</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>13.34</v>
       </c>
       <c r="AG12" s="2">
         <v>37.58</v>
@@ -5504,10 +5514,10 @@
         <v>30.72</v>
       </c>
       <c r="AO12" s="2">
-        <v>37.049999999999997</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AP12" s="2">
-        <v>19.64</v>
+        <v>18.86</v>
       </c>
       <c r="AQ12" s="2">
         <v>14.06</v>
@@ -5622,16 +5632,16 @@
         <v>25.14</v>
       </c>
       <c r="AC13" s="2">
-        <v>25.6</v>
+        <v>24.85</v>
       </c>
       <c r="AD13" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AE13" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="AE13" s="4">
         <v>14.72</v>
       </c>
-      <c r="AF13" s="2">
-        <v>13.34</v>
+      <c r="AF13" s="4">
+        <v>13.48</v>
       </c>
       <c r="AG13" s="2">
         <v>37.26</v>
@@ -5657,12 +5667,8 @@
       <c r="AN13" s="2">
         <v>30.6</v>
       </c>
-      <c r="AO13" s="2">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>18.86</v>
-      </c>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>13.84</v>
       </c>
@@ -5774,16 +5780,16 @@
         <v>25.21</v>
       </c>
       <c r="AC14" s="2">
-        <v>25.22</v>
+        <v>24.38</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.57</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>14.72</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>13.48</v>
+        <v>9.15</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>14.68</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>13.78</v>
       </c>
       <c r="AG14" s="2">
         <v>36.659999999999997</v>
@@ -5922,16 +5928,16 @@
         <v>25.33</v>
       </c>
       <c r="AC15" s="2">
-        <v>24.85</v>
+        <v>24.09</v>
       </c>
       <c r="AD15" s="2">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" s="2">
-        <v>14.68</v>
+        <v>14.85</v>
       </c>
       <c r="AF15" s="2">
-        <v>13.78</v>
+        <v>14.09</v>
       </c>
       <c r="AG15" s="2">
         <v>37.68</v>
@@ -6027,10 +6033,18 @@
       <c r="L16" s="2">
         <v>6.08</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P16" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>10.33</v>
+      </c>
+      <c r="R16" s="2">
+        <v>18.149999999999999</v>
+      </c>
       <c r="S16" s="2">
         <v>10.14</v>
       </c>
@@ -6043,8 +6057,12 @@
       <c r="V16" s="2">
         <v>7.96</v>
       </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="W16" s="2">
+        <v>22.82</v>
+      </c>
+      <c r="X16" s="2">
+        <v>24.16</v>
+      </c>
       <c r="Y16" s="2">
         <v>38.729999999999997</v>
       </c>
@@ -6057,13 +6075,17 @@
       <c r="AB16" s="2">
         <v>25.19</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
+      <c r="AC16" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>10.17</v>
+      </c>
       <c r="AE16" s="2">
-        <v>14.85</v>
+        <v>14.84</v>
       </c>
       <c r="AF16" s="2">
-        <v>14.09</v>
+        <v>14.42</v>
       </c>
       <c r="AG16" s="2">
         <v>38.53</v>
@@ -6154,16 +6176,16 @@
         <v>14.75</v>
       </c>
       <c r="O17" s="2">
-        <v>2.8</v>
+        <v>4.01</v>
       </c>
       <c r="P17" s="2">
-        <v>15.5</v>
+        <v>15.83</v>
       </c>
       <c r="Q17" s="2">
-        <v>10.33</v>
+        <v>10.61</v>
       </c>
       <c r="R17" s="2">
-        <v>18.149999999999999</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="S17" s="2">
         <v>12.44</v>
@@ -6171,13 +6193,17 @@
       <c r="T17" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="U17" s="2">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="V17" s="2">
+        <v>6.18</v>
+      </c>
       <c r="W17" s="2">
-        <v>22.82</v>
+        <v>21.86</v>
       </c>
       <c r="X17" s="2">
-        <v>24.16</v>
+        <v>22.5</v>
       </c>
       <c r="Y17" s="2">
         <v>38.42</v>
@@ -6191,20 +6217,24 @@
       <c r="AB17" s="2">
         <v>25.27</v>
       </c>
-      <c r="AC17" s="2">
-        <v>24.38</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>9.15</v>
+      <c r="AC17" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>10.75</v>
       </c>
       <c r="AE17" s="2">
-        <v>14.84</v>
+        <v>15.38</v>
       </c>
       <c r="AF17" s="2">
-        <v>14.42</v>
-      </c>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+        <v>14.79</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>15.06</v>
+      </c>
       <c r="AI17" s="2">
         <v>34.840000000000003</v>
       </c>
@@ -6288,16 +6318,16 @@
         <v>14.99</v>
       </c>
       <c r="O18" s="2">
-        <v>4.01</v>
+        <v>5.26</v>
       </c>
       <c r="P18" s="2">
-        <v>15.83</v>
+        <v>15.29</v>
       </c>
       <c r="Q18" s="2">
-        <v>10.61</v>
+        <v>10.96</v>
       </c>
       <c r="R18" s="2">
-        <v>18.059999999999999</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="S18" s="2">
         <v>13.62</v>
@@ -6306,19 +6336,23 @@
         <v>8.18</v>
       </c>
       <c r="U18" s="2">
-        <v>18.079999999999998</v>
+        <v>18.47</v>
       </c>
       <c r="V18" s="2">
-        <v>6.18</v>
+        <v>4.01</v>
       </c>
       <c r="W18" s="2">
-        <v>21.86</v>
+        <v>21.15</v>
       </c>
       <c r="X18" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+        <v>21.51</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>38.06</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>26.12</v>
+      </c>
       <c r="AA18" s="2">
         <v>30.745000000000001</v>
       </c>
@@ -6326,22 +6360,22 @@
         <v>25.09</v>
       </c>
       <c r="AC18" s="2">
-        <v>24.09</v>
+        <v>22.74</v>
       </c>
       <c r="AD18" s="2">
-        <v>9.5</v>
+        <v>10.47</v>
       </c>
       <c r="AE18" s="2">
-        <v>15.38</v>
+        <v>15.69</v>
       </c>
       <c r="AF18" s="2">
-        <v>14.79</v>
+        <v>15.3</v>
       </c>
       <c r="AG18" s="2">
-        <v>39.479999999999997</v>
+        <v>39.18</v>
       </c>
       <c r="AH18" s="2">
-        <v>15.06</v>
+        <v>16.36</v>
       </c>
       <c r="AI18" s="2">
         <v>34.57</v>
@@ -6428,16 +6462,16 @@
         <v>15.27</v>
       </c>
       <c r="O19" s="2">
-        <v>5.26</v>
+        <v>5.6</v>
       </c>
       <c r="P19" s="2">
-        <v>15.29</v>
+        <v>15.5</v>
       </c>
       <c r="Q19" s="2">
-        <v>10.96</v>
+        <v>11.05</v>
       </c>
       <c r="R19" s="2">
-        <v>17.829999999999998</v>
+        <v>17.45</v>
       </c>
       <c r="S19" s="2">
         <v>14.59</v>
@@ -6446,22 +6480,22 @@
         <v>9</v>
       </c>
       <c r="U19" s="2">
-        <v>18.47</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="V19" s="2">
-        <v>4.01</v>
+        <v>2.99</v>
       </c>
       <c r="W19" s="2">
-        <v>21.15</v>
+        <v>20.81</v>
       </c>
       <c r="X19" s="2">
-        <v>21.51</v>
+        <v>20.89</v>
       </c>
       <c r="Y19" s="2">
-        <v>38.06</v>
+        <v>37.93</v>
       </c>
       <c r="Z19" s="2">
-        <v>26.12</v>
+        <v>25.85</v>
       </c>
       <c r="AA19" s="2">
         <v>30.58</v>
@@ -6470,22 +6504,22 @@
         <v>25.036000000000001</v>
       </c>
       <c r="AC19" s="2">
-        <v>24.1</v>
+        <v>22.77</v>
       </c>
       <c r="AD19" s="2">
-        <v>10.17</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="AE19" s="2">
-        <v>15.69</v>
+        <v>15.97</v>
       </c>
       <c r="AF19" s="2">
-        <v>15.3</v>
+        <v>15.59</v>
       </c>
       <c r="AG19" s="2">
-        <v>39.18</v>
+        <v>40.07</v>
       </c>
       <c r="AH19" s="2">
-        <v>16.36</v>
+        <v>17.13</v>
       </c>
       <c r="AI19" s="2">
         <v>34.549999999999997</v>
@@ -6572,16 +6606,16 @@
         <v>15.3</v>
       </c>
       <c r="O20" s="2">
-        <v>5.6</v>
+        <v>5.88</v>
       </c>
       <c r="P20" s="2">
-        <v>15.5</v>
+        <v>15.33</v>
       </c>
       <c r="Q20" s="2">
-        <v>11.05</v>
+        <v>11.3</v>
       </c>
       <c r="R20" s="2">
-        <v>17.45</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="S20" s="2">
         <v>15.02</v>
@@ -6590,22 +6624,22 @@
         <v>9.76</v>
       </c>
       <c r="U20" s="2">
-        <v>17.670000000000002</v>
+        <v>17.22</v>
       </c>
       <c r="V20" s="2">
-        <v>2.99</v>
+        <v>1.92</v>
       </c>
       <c r="W20" s="2">
-        <v>20.81</v>
+        <v>20.38</v>
       </c>
       <c r="X20" s="2">
-        <v>20.89</v>
+        <v>20.95</v>
       </c>
       <c r="Y20" s="2">
-        <v>37.93</v>
+        <v>37.74</v>
       </c>
       <c r="Z20" s="2">
-        <v>25.85</v>
+        <v>25.7</v>
       </c>
       <c r="AA20" s="2">
         <v>30.24</v>
@@ -6613,23 +6647,23 @@
       <c r="AB20" s="2">
         <v>25.1</v>
       </c>
-      <c r="AC20" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>10.75</v>
+      <c r="AC20" s="2">
+        <v>22.29</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>9.98</v>
       </c>
       <c r="AE20" s="2">
-        <v>15.97</v>
+        <v>15.73</v>
       </c>
       <c r="AF20" s="2">
-        <v>15.59</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>40.07</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>17.13</v>
+        <v>15.85</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>17.25</v>
       </c>
       <c r="AI20" s="2">
         <v>34.4</v>
@@ -6710,16 +6744,16 @@
         <v>15.5</v>
       </c>
       <c r="O21" s="2">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="P21" s="2">
-        <v>15.33</v>
+        <v>15.38</v>
       </c>
       <c r="Q21" s="2">
-        <v>11.3</v>
+        <v>11.42</v>
       </c>
       <c r="R21" s="2">
-        <v>17.309999999999999</v>
+        <v>16.59</v>
       </c>
       <c r="S21" s="2">
         <v>15.3</v>
@@ -6728,22 +6762,22 @@
         <v>10.45</v>
       </c>
       <c r="U21" s="2">
-        <v>17.22</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="V21" s="2">
-        <v>1.92</v>
+        <v>0.03</v>
       </c>
       <c r="W21" s="2">
-        <v>20.38</v>
+        <v>20.2</v>
       </c>
       <c r="X21" s="2">
-        <v>20.95</v>
+        <v>20.945</v>
       </c>
       <c r="Y21" s="2">
-        <v>37.74</v>
+        <v>37.58</v>
       </c>
       <c r="Z21" s="2">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="AA21" s="2">
         <v>29.88</v>
@@ -6752,22 +6786,22 @@
         <v>24.92</v>
       </c>
       <c r="AC21" s="2">
-        <v>22.74</v>
+        <v>21.79</v>
       </c>
       <c r="AD21" s="2">
-        <v>10.47</v>
+        <v>9.94</v>
       </c>
       <c r="AE21" s="2">
-        <v>15.73</v>
+        <v>14.98</v>
       </c>
       <c r="AF21" s="2">
-        <v>15.85</v>
-      </c>
-      <c r="AG21" s="10">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="AH21" s="10">
-        <v>17.25</v>
+        <v>15.87</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>16.77</v>
       </c>
       <c r="AI21" s="2">
         <v>34.340000000000003</v>
@@ -6844,16 +6878,16 @@
         <v>15.8</v>
       </c>
       <c r="O22" s="2">
-        <v>6.05</v>
+        <v>6.66</v>
       </c>
       <c r="P22" s="2">
-        <v>15.38</v>
+        <v>15.14</v>
       </c>
       <c r="Q22" s="2">
-        <v>11.42</v>
+        <v>11.87</v>
       </c>
       <c r="R22" s="2">
-        <v>16.59</v>
+        <v>16.16</v>
       </c>
       <c r="S22" s="2">
         <v>16.18</v>
@@ -6862,22 +6896,22 @@
         <v>10.67</v>
       </c>
       <c r="U22" s="2">
-        <v>17.739999999999998</v>
+        <v>27.99</v>
       </c>
       <c r="V22" s="2">
         <v>0.03</v>
       </c>
       <c r="W22" s="2">
-        <v>20.2</v>
+        <v>19.62</v>
       </c>
       <c r="X22" s="2">
-        <v>20.945</v>
+        <v>20.74</v>
       </c>
       <c r="Y22" s="2">
-        <v>37.58</v>
+        <v>37.04</v>
       </c>
       <c r="Z22" s="2">
-        <v>25.5</v>
+        <v>25.72</v>
       </c>
       <c r="AA22" s="2">
         <v>29.73</v>
@@ -6886,23 +6920,19 @@
         <v>25.01</v>
       </c>
       <c r="AC22" s="2">
-        <v>22.77</v>
+        <v>21.39</v>
       </c>
       <c r="AD22" s="2">
-        <v>10.119999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="AE22" s="2">
-        <v>14.98</v>
+        <v>14.97</v>
       </c>
       <c r="AF22" s="2">
-        <v>15.87</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>16.77</v>
-      </c>
+        <v>16.579999999999998</v>
+      </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2">
         <v>34.200000000000003</v>
       </c>
@@ -6978,16 +7008,16 @@
         <v>15.74</v>
       </c>
       <c r="O23" s="2">
-        <v>6.66</v>
+        <v>6.89</v>
       </c>
       <c r="P23" s="2">
-        <v>15.14</v>
+        <v>15.48</v>
       </c>
       <c r="Q23" s="2">
-        <v>11.87</v>
+        <v>12.16</v>
       </c>
       <c r="R23" s="2">
-        <v>16.16</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="S23" s="2">
         <v>16.399999999999999</v>
@@ -6996,22 +7026,22 @@
         <v>10.97</v>
       </c>
       <c r="U23" s="2">
-        <v>27.99</v>
+        <v>28.14</v>
       </c>
       <c r="V23" s="2">
-        <v>0.03</v>
+        <v>0.65</v>
       </c>
       <c r="W23" s="2">
-        <v>19.62</v>
+        <v>20.12</v>
       </c>
       <c r="X23" s="2">
-        <v>20.74</v>
+        <v>20</v>
       </c>
       <c r="Y23" s="2">
-        <v>37.04</v>
+        <v>36.94</v>
       </c>
       <c r="Z23" s="2">
-        <v>25.72</v>
+        <v>25.45</v>
       </c>
       <c r="AA23" s="2">
         <v>29.67</v>
@@ -7020,16 +7050,16 @@
         <v>25.35</v>
       </c>
       <c r="AC23" s="2">
-        <v>22.29</v>
+        <v>21.17</v>
       </c>
       <c r="AD23" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>14.97</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>16.579999999999998</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>17.809999999999999</v>
       </c>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -7108,16 +7138,16 @@
         <v>15.87</v>
       </c>
       <c r="O24" s="2">
-        <v>6.89</v>
+        <v>7.15</v>
       </c>
       <c r="P24" s="2">
-        <v>15.48</v>
+        <v>15.77</v>
       </c>
       <c r="Q24" s="2">
-        <v>12.16</v>
+        <v>12.44</v>
       </c>
       <c r="R24" s="2">
-        <v>16.170000000000002</v>
+        <v>15.58</v>
       </c>
       <c r="S24" s="2">
         <v>16.809999999999999</v>
@@ -7126,22 +7156,22 @@
         <v>10.82</v>
       </c>
       <c r="U24" s="2">
-        <v>28.14</v>
+        <v>27.856000000000002</v>
       </c>
       <c r="V24" s="2">
-        <v>0.65</v>
+        <v>1.94</v>
       </c>
       <c r="W24" s="2">
-        <v>20.12</v>
+        <v>19.53</v>
       </c>
       <c r="X24" s="2">
-        <v>20</v>
+        <v>19.53</v>
       </c>
       <c r="Y24" s="2">
-        <v>36.94</v>
+        <v>36.51</v>
       </c>
       <c r="Z24" s="2">
-        <v>25.45</v>
+        <v>25.47</v>
       </c>
       <c r="AA24" s="2">
         <v>29.45</v>
@@ -7150,16 +7180,16 @@
         <v>25.44</v>
       </c>
       <c r="AC24" s="2">
-        <v>21.79</v>
+        <v>20.76</v>
       </c>
       <c r="AD24" s="2">
-        <v>9.94</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>17.809999999999999</v>
+        <v>9.24</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>17.41</v>
       </c>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -7239,16 +7269,16 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
-        <v>7.15</v>
+        <v>7.6</v>
       </c>
       <c r="P25" s="2">
-        <v>15.77</v>
+        <v>15.53</v>
       </c>
       <c r="Q25" s="2">
-        <v>12.44</v>
+        <v>12.54</v>
       </c>
       <c r="R25" s="2">
-        <v>15.58</v>
+        <v>14.99</v>
       </c>
       <c r="S25" s="2">
         <v>19.07</v>
@@ -7257,22 +7287,22 @@
         <v>9.69</v>
       </c>
       <c r="U25" s="2">
-        <v>27.856000000000002</v>
+        <v>27.61</v>
       </c>
       <c r="V25" s="2">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="W25" s="2">
-        <v>19.53</v>
+        <v>20.78</v>
       </c>
       <c r="X25" s="2">
-        <v>19.53</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y25" s="2">
-        <v>36.51</v>
+        <v>36.47</v>
       </c>
       <c r="Z25" s="2">
-        <v>25.47</v>
+        <v>25.28</v>
       </c>
       <c r="AA25" s="2">
         <v>29.32</v>
@@ -7280,17 +7310,17 @@
       <c r="AB25" s="2">
         <v>25.22</v>
       </c>
-      <c r="AC25" s="2">
-        <v>21.39</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>9.51</v>
+      <c r="AC25" s="5">
+        <v>20.57</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>8.93</v>
       </c>
       <c r="AE25" s="2">
-        <v>17.440000000000001</v>
+        <v>18.36</v>
       </c>
       <c r="AF25" s="2">
-        <v>17.41</v>
+        <v>17.88</v>
       </c>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -7371,16 +7401,16 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
-        <v>7.6</v>
+        <v>7.86</v>
       </c>
       <c r="P26" s="2">
-        <v>15.53</v>
+        <v>15.7</v>
       </c>
       <c r="Q26" s="2">
-        <v>12.54</v>
+        <v>12.91</v>
       </c>
       <c r="R26" s="2">
-        <v>14.99</v>
+        <v>14.88</v>
       </c>
       <c r="S26" s="2">
         <v>18.16</v>
@@ -7389,22 +7419,22 @@
         <v>7.96</v>
       </c>
       <c r="U26" s="2">
-        <v>27.61</v>
+        <v>27.17</v>
       </c>
       <c r="V26" s="2">
-        <v>2.42</v>
+        <v>2.89</v>
       </c>
       <c r="W26" s="2">
-        <v>20.78</v>
+        <v>21.02</v>
       </c>
       <c r="X26" s="2">
-        <v>18.399999999999999</v>
+        <v>17.87</v>
       </c>
       <c r="Y26" s="2">
-        <v>36.47</v>
+        <v>36.24</v>
       </c>
       <c r="Z26" s="2">
-        <v>25.28</v>
+        <v>25.15</v>
       </c>
       <c r="AA26" s="2">
         <v>29.06</v>
@@ -7413,16 +7443,16 @@
         <v>25.135000000000002</v>
       </c>
       <c r="AC26" s="2">
-        <v>21.17</v>
+        <v>21.55</v>
       </c>
       <c r="AD26" s="2">
-        <v>9.1999999999999993</v>
+        <v>6.92</v>
       </c>
       <c r="AE26" s="2">
-        <v>18.36</v>
+        <v>20.14</v>
       </c>
       <c r="AF26" s="2">
-        <v>17.88</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
@@ -7497,36 +7527,40 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2">
-        <v>7.86</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="P27" s="2">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="Q27" s="2">
-        <v>12.91</v>
+        <v>12.86</v>
       </c>
       <c r="R27" s="2">
-        <v>14.88</v>
-      </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+        <v>14.55</v>
+      </c>
+      <c r="S27" s="2">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="T27" s="2">
+        <v>6.18</v>
+      </c>
       <c r="U27" s="2">
-        <v>27.17</v>
+        <v>27.16</v>
       </c>
       <c r="V27" s="2">
-        <v>2.89</v>
+        <v>3.39</v>
       </c>
       <c r="W27" s="2">
-        <v>21.02</v>
+        <v>21.69</v>
       </c>
       <c r="X27" s="2">
-        <v>17.87</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="Y27" s="2">
-        <v>36.24</v>
+        <v>36.06</v>
       </c>
       <c r="Z27" s="2">
-        <v>25.15</v>
+        <v>25.39</v>
       </c>
       <c r="AA27" s="2">
         <v>28.8</v>
@@ -7535,16 +7569,16 @@
         <v>25.3</v>
       </c>
       <c r="AC27" s="2">
-        <v>20.76</v>
+        <v>24.05</v>
       </c>
       <c r="AD27" s="2">
-        <v>9.24</v>
+        <v>5.13</v>
       </c>
       <c r="AE27" s="2">
-        <v>20.14</v>
+        <v>20.5</v>
       </c>
       <c r="AF27" s="2">
-        <v>18.170000000000002</v>
+        <v>18.46</v>
       </c>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
@@ -7613,40 +7647,40 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2">
-        <v>8.1300000000000008</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P28" s="2">
-        <v>15.6</v>
+        <v>15.74</v>
       </c>
       <c r="Q28" s="2">
-        <v>12.86</v>
+        <v>13.06</v>
       </c>
       <c r="R28" s="2">
-        <v>14.55</v>
+        <v>14.34</v>
       </c>
       <c r="S28" s="2">
-        <v>18.079999999999998</v>
+        <v>18.47</v>
       </c>
       <c r="T28" s="2">
-        <v>6.18</v>
+        <v>4.01</v>
       </c>
       <c r="U28" s="2">
-        <v>27.16</v>
+        <v>26.98</v>
       </c>
       <c r="V28" s="2">
-        <v>3.39</v>
+        <v>3.56</v>
       </c>
       <c r="W28" s="2">
-        <v>21.69</v>
+        <v>23.04</v>
       </c>
       <c r="X28" s="2">
-        <v>17.239999999999998</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="Y28" s="2">
-        <v>36.06</v>
+        <v>36.1</v>
       </c>
       <c r="Z28" s="2">
-        <v>25.39</v>
+        <v>25.72</v>
       </c>
       <c r="AA28" s="2">
         <v>28.367000000000001</v>
@@ -7654,17 +7688,17 @@
       <c r="AB28" s="2">
         <v>25.4</v>
       </c>
-      <c r="AC28" s="5">
-        <v>20.57</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>8.93</v>
+      <c r="AC28" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>5.33</v>
       </c>
       <c r="AE28" s="2">
-        <v>20.5</v>
+        <v>20.78</v>
       </c>
       <c r="AF28" s="2">
-        <v>18.46</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -7729,40 +7763,40 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.86</v>
       </c>
       <c r="P29" s="2">
-        <v>15.74</v>
+        <v>15.93</v>
       </c>
       <c r="Q29" s="2">
-        <v>13.06</v>
+        <v>13.29</v>
       </c>
       <c r="R29" s="2">
-        <v>14.34</v>
+        <v>13.92</v>
       </c>
       <c r="S29" s="2">
-        <v>18.47</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="T29" s="2">
-        <v>4.01</v>
+        <v>2.99</v>
       </c>
       <c r="U29" s="2">
-        <v>26.98</v>
+        <v>26.82</v>
       </c>
       <c r="V29" s="2">
-        <v>3.56</v>
+        <v>3.72</v>
       </c>
       <c r="W29" s="2">
-        <v>23.04</v>
+        <v>24.64</v>
       </c>
       <c r="X29" s="2">
-        <v>17.809999999999999</v>
+        <v>18.32</v>
       </c>
       <c r="Y29" s="2">
-        <v>36.1</v>
+        <v>35.78</v>
       </c>
       <c r="Z29" s="2">
-        <v>25.72</v>
+        <v>25.79</v>
       </c>
       <c r="AA29" s="2">
         <v>27.93</v>
@@ -7771,16 +7805,16 @@
         <v>25.3</v>
       </c>
       <c r="AC29" s="2">
-        <v>21.55</v>
+        <v>25.86</v>
       </c>
       <c r="AD29" s="2">
-        <v>6.92</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AE29" s="2">
-        <v>20.78</v>
+        <v>21.02</v>
       </c>
       <c r="AF29" s="2">
-        <v>18.399999999999999</v>
+        <v>17.87</v>
       </c>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
@@ -7845,40 +7879,40 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2">
-        <v>8.86</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="P30" s="2">
-        <v>15.93</v>
+        <v>15.79</v>
       </c>
       <c r="Q30" s="2">
-        <v>13.29</v>
+        <v>13.31</v>
       </c>
       <c r="R30" s="2">
-        <v>13.92</v>
+        <v>13.84</v>
       </c>
       <c r="S30" s="2">
-        <v>17.670000000000002</v>
+        <v>17.22</v>
       </c>
       <c r="T30" s="2">
-        <v>2.99</v>
+        <v>1.92</v>
       </c>
       <c r="U30" s="2">
-        <v>26.82</v>
+        <v>26.65</v>
       </c>
       <c r="V30" s="2">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="W30" s="2">
-        <v>24.64</v>
+        <v>26.18</v>
       </c>
       <c r="X30" s="2">
-        <v>18.32</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="Y30" s="2">
-        <v>35.78</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="Z30" s="2">
-        <v>25.79</v>
+        <v>25.29</v>
       </c>
       <c r="AA30" s="2">
         <v>27.78</v>
@@ -7887,16 +7921,16 @@
         <v>25.36</v>
       </c>
       <c r="AC30" s="2">
-        <v>24.05</v>
+        <v>26.5</v>
       </c>
       <c r="AD30" s="2">
-        <v>5.13</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AE30" s="2">
-        <v>21.02</v>
+        <v>21.69</v>
       </c>
       <c r="AF30" s="2">
-        <v>17.87</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
@@ -7961,54 +7995,46 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2">
-        <v>9.2200000000000006</v>
+        <v>9.44</v>
       </c>
       <c r="P31" s="2">
-        <v>15.79</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Q31" s="2">
-        <v>13.31</v>
+        <v>13.45</v>
       </c>
       <c r="R31" s="2">
-        <v>13.84</v>
+        <v>13.94</v>
       </c>
       <c r="S31" s="2">
-        <v>17.22</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="T31" s="2">
-        <v>1.92</v>
+        <v>0.03</v>
       </c>
       <c r="U31" s="2">
-        <v>26.65</v>
+        <v>26.73</v>
       </c>
       <c r="V31" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="W31" s="2">
-        <v>26.18</v>
-      </c>
-      <c r="X31" s="2">
-        <v>19.260000000000002</v>
+        <v>3.71</v>
       </c>
       <c r="Y31" s="2">
-        <v>35.130000000000003</v>
+        <v>34.97</v>
       </c>
       <c r="Z31" s="2">
         <v>25.29</v>
       </c>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2">
-        <v>25</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>5.33</v>
+      <c r="AA31" s="2">
+        <v>27.24</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>25.21</v>
       </c>
       <c r="AE31" s="2">
-        <v>21.69</v>
+        <v>22.49</v>
       </c>
       <c r="AF31" s="2">
-        <v>17.239999999999998</v>
+        <v>16.45</v>
       </c>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
@@ -8069,52 +8095,40 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2">
-        <v>9.44</v>
+        <v>9.77</v>
       </c>
       <c r="P32" s="2">
-        <v>16.190000000000001</v>
+        <v>15.92</v>
       </c>
       <c r="Q32" s="2">
-        <v>13.45</v>
+        <v>13.68</v>
       </c>
       <c r="R32" s="2">
-        <v>13.94</v>
-      </c>
-      <c r="S32" s="2">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0.03</v>
+        <v>13.82</v>
       </c>
       <c r="U32" s="2">
-        <v>26.73</v>
+        <v>26.72</v>
       </c>
       <c r="V32" s="2">
-        <v>3.71</v>
+        <v>3.62</v>
       </c>
       <c r="Y32" s="2">
-        <v>34.97</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="Z32" s="2">
-        <v>25.29</v>
+        <v>25.01</v>
       </c>
       <c r="AA32" s="2">
-        <v>27.24</v>
+        <v>27.23</v>
       </c>
       <c r="AB32" s="2">
-        <v>25.21</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>25.86</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>4.6399999999999997</v>
+        <v>25.15</v>
       </c>
       <c r="AE32" s="2">
-        <v>22.49</v>
+        <v>23.13</v>
       </c>
       <c r="AF32" s="2">
-        <v>16.45</v>
+        <v>15.08</v>
       </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
@@ -8177,46 +8191,40 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2">
-        <v>9.77</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="P33" s="2">
-        <v>15.92</v>
+        <v>16.12</v>
       </c>
       <c r="Q33" s="2">
-        <v>13.68</v>
+        <v>13.58</v>
       </c>
       <c r="R33" s="2">
-        <v>13.82</v>
+        <v>13.34</v>
       </c>
       <c r="U33" s="2">
-        <v>26.72</v>
+        <v>26.67</v>
       </c>
       <c r="V33" s="2">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="Y33" s="2">
-        <v>34.630000000000003</v>
+        <v>34.54</v>
       </c>
       <c r="Z33" s="2">
-        <v>25.01</v>
+        <v>25.04</v>
       </c>
       <c r="AA33" s="2">
-        <v>27.23</v>
+        <v>27.26</v>
       </c>
       <c r="AB33" s="2">
-        <v>25.15</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>4.4800000000000004</v>
+        <v>24.46</v>
       </c>
       <c r="AE33" s="2">
-        <v>23.13</v>
+        <v>23.5</v>
       </c>
       <c r="AF33" s="2">
-        <v>15.08</v>
+        <v>13.44</v>
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
@@ -8279,40 +8287,40 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2">
-        <v>9.9499999999999993</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="P34" s="2">
-        <v>16.12</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q34" s="2">
-        <v>13.58</v>
+        <v>14.14</v>
       </c>
       <c r="R34" s="2">
-        <v>13.34</v>
+        <v>13.12</v>
       </c>
       <c r="U34" s="2">
-        <v>26.67</v>
+        <v>26.54</v>
       </c>
       <c r="V34" s="2">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="Y34" s="2">
-        <v>34.54</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="Z34" s="2">
-        <v>25.04</v>
+        <v>25.02</v>
       </c>
       <c r="AA34" s="2">
-        <v>27.26</v>
+        <v>27.9</v>
       </c>
       <c r="AB34" s="2">
-        <v>24.46</v>
+        <v>24.06</v>
       </c>
       <c r="AE34" s="2">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AF34" s="2">
-        <v>13.44</v>
+        <v>11.83</v>
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
@@ -8371,40 +8379,40 @@
         <v>15.11</v>
       </c>
       <c r="O35" s="2">
-        <v>10.050000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="P35" s="2">
-        <v>16.399999999999999</v>
+        <v>16.43</v>
       </c>
       <c r="Q35" s="2">
-        <v>14.14</v>
+        <v>14.42</v>
       </c>
       <c r="R35" s="2">
-        <v>13.12</v>
+        <v>13.36</v>
       </c>
       <c r="U35" s="2">
-        <v>26.54</v>
+        <v>26.1</v>
       </c>
       <c r="V35" s="2">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="Y35" s="2">
-        <v>34.020000000000003</v>
+        <v>34.1</v>
       </c>
       <c r="Z35" s="2">
-        <v>25.02</v>
+        <v>25.43</v>
       </c>
       <c r="AA35" s="2">
-        <v>27.9</v>
+        <v>28.05</v>
       </c>
       <c r="AB35" s="2">
-        <v>24.06</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="AF35" s="2">
-        <v>11.83</v>
+        <v>23.35</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>10.75</v>
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
@@ -8463,43 +8471,41 @@
         <v>14.8</v>
       </c>
       <c r="O36" s="2">
-        <v>10.24</v>
+        <v>10.42</v>
       </c>
       <c r="P36" s="2">
-        <v>16.43</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>14.42</v>
-      </c>
-      <c r="R36" s="2">
-        <v>13.36</v>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>14.72</v>
+      </c>
+      <c r="R36" s="4">
+        <v>13.48</v>
       </c>
       <c r="U36" s="2">
-        <v>26.1</v>
+        <v>25.98</v>
       </c>
       <c r="V36" s="2">
-        <v>3.46</v>
+        <v>3.62</v>
       </c>
       <c r="Y36" s="2">
-        <v>34.1</v>
+        <v>33.82</v>
       </c>
       <c r="Z36" s="2">
-        <v>25.43</v>
+        <v>25.69</v>
       </c>
       <c r="AA36" s="2">
-        <v>28.05</v>
+        <v>27.61</v>
       </c>
       <c r="AB36" s="2">
-        <v>23.35</v>
-      </c>
-      <c r="AE36" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>10.75</v>
-      </c>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
+        <v>21.38</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>10.47</v>
+      </c>
       <c r="AI36" s="2">
         <v>41</v>
       </c>
@@ -8507,10 +8513,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>27</v>
+        <v>28.76</v>
       </c>
       <c r="AL36" s="2">
-        <v>7</v>
+        <v>6.34</v>
       </c>
       <c r="AM36" s="2">
         <v>6.69</v>
@@ -8555,46 +8561,40 @@
         <v>14.08</v>
       </c>
       <c r="O37" s="2">
-        <v>10.42</v>
+        <v>10.77</v>
       </c>
       <c r="P37" s="2">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>14.72</v>
-      </c>
-      <c r="R37" s="4">
-        <v>13.48</v>
+        <v>16.18</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>14.68</v>
+      </c>
+      <c r="R37" s="2">
+        <v>13.78</v>
       </c>
       <c r="U37" s="2">
-        <v>25.98</v>
+        <v>25.84</v>
       </c>
       <c r="V37" s="2">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="Y37" s="2">
-        <v>33.82</v>
+        <v>33.67</v>
       </c>
       <c r="Z37" s="2">
-        <v>25.69</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>27.61</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>21.38</v>
+        <v>25.51</v>
       </c>
       <c r="AE37" s="2">
-        <v>22.74</v>
+        <v>22.77</v>
       </c>
       <c r="AF37" s="2">
-        <v>10.47</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="AK37" s="2">
-        <v>26.92</v>
+        <v>30.08</v>
       </c>
       <c r="AL37" s="2">
-        <v>6.45</v>
+        <v>5.64</v>
       </c>
       <c r="AM37" s="2">
         <v>6.97</v>
@@ -8639,40 +8639,40 @@
         <v>13.92</v>
       </c>
       <c r="O38" s="2">
-        <v>10.77</v>
+        <v>10.71</v>
       </c>
       <c r="P38" s="2">
-        <v>16.18</v>
+        <v>16.62</v>
       </c>
       <c r="Q38" s="2">
-        <v>14.68</v>
+        <v>14.85</v>
       </c>
       <c r="R38" s="2">
-        <v>13.78</v>
+        <v>14.09</v>
       </c>
       <c r="U38" s="2">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="V38" s="2">
-        <v>3.59</v>
+        <v>3.34</v>
       </c>
       <c r="Y38" s="2">
-        <v>33.67</v>
+        <v>33.11</v>
       </c>
       <c r="Z38" s="2">
-        <v>25.51</v>
+        <v>25.74</v>
       </c>
       <c r="AE38" s="2">
-        <v>22.77</v>
+        <v>22.29</v>
       </c>
       <c r="AF38" s="2">
-        <v>10.119999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="AK38" s="2">
-        <v>28.76</v>
+        <v>30.07</v>
       </c>
       <c r="AL38" s="2">
-        <v>6.34</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AM38" s="2">
         <v>7.16</v>
@@ -8717,40 +8717,40 @@
         <v>14.33</v>
       </c>
       <c r="O39" s="2">
-        <v>10.71</v>
+        <v>10.33</v>
       </c>
       <c r="P39" s="2">
-        <v>16.62</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="Q39" s="2">
-        <v>14.85</v>
+        <v>14.84</v>
       </c>
       <c r="R39" s="2">
-        <v>14.09</v>
+        <v>14.42</v>
       </c>
       <c r="U39" s="2">
-        <v>25.7</v>
+        <v>25.56</v>
       </c>
       <c r="V39" s="2">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="Y39" s="2">
-        <v>33.11</v>
+        <v>32.89</v>
       </c>
       <c r="Z39" s="2">
-        <v>25.74</v>
+        <v>25.59</v>
       </c>
       <c r="AE39" s="2">
-        <v>22.29</v>
+        <v>21.79</v>
       </c>
       <c r="AF39" s="2">
-        <v>9.98</v>
+        <v>9.94</v>
       </c>
       <c r="AK39" s="2">
-        <v>30.08</v>
+        <v>29.36</v>
       </c>
       <c r="AL39" s="2">
-        <v>5.64</v>
+        <v>4.18</v>
       </c>
       <c r="AM39" s="2">
         <v>7.51</v>
@@ -8795,40 +8795,40 @@
         <v>14.5</v>
       </c>
       <c r="O40" s="2">
-        <v>10.33</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="P40" s="2">
-        <v>16.559999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Q40" s="2">
-        <v>14.84</v>
+        <v>15.38</v>
       </c>
       <c r="R40" s="2">
-        <v>14.42</v>
+        <v>14.79</v>
       </c>
       <c r="U40" s="2">
-        <v>25.56</v>
+        <v>25.53</v>
       </c>
       <c r="V40" s="2">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="Y40" s="2">
-        <v>32.89</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="Z40" s="2">
-        <v>25.59</v>
+        <v>25.62</v>
       </c>
       <c r="AE40" s="2">
-        <v>21.79</v>
+        <v>21.39</v>
       </c>
       <c r="AF40" s="2">
-        <v>9.94</v>
+        <v>9.51</v>
       </c>
       <c r="AK40" s="2">
-        <v>30.07</v>
+        <v>29</v>
       </c>
       <c r="AL40" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.3769999999999998</v>
       </c>
       <c r="AM40" s="2">
         <v>7.64</v>
@@ -8873,40 +8873,42 @@
         <v>14.7</v>
       </c>
       <c r="O41" s="2">
-        <v>10.029999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="P41" s="2">
-        <v>16.899999999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="Q41" s="2">
-        <v>15.38</v>
+        <v>15.69</v>
       </c>
       <c r="R41" s="2">
-        <v>14.79</v>
+        <v>15.3</v>
       </c>
       <c r="U41" s="2">
-        <v>25.53</v>
+        <v>25.14</v>
       </c>
       <c r="V41" s="2">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="Y41" s="2">
-        <v>32.630000000000003</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="Z41" s="2">
-        <v>25.62</v>
-      </c>
+        <v>25.49</v>
+      </c>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
       <c r="AE41" s="2">
-        <v>21.39</v>
+        <v>21.17</v>
       </c>
       <c r="AF41" s="2">
-        <v>9.51</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AK41" s="2">
-        <v>29.36</v>
+        <v>27.2</v>
       </c>
       <c r="AL41" s="2">
-        <v>4.18</v>
+        <v>3.6</v>
       </c>
       <c r="AM41" s="2">
         <v>7.82</v>
@@ -8951,42 +8953,42 @@
         <v>14.43</v>
       </c>
       <c r="O42" s="2">
-        <v>10.1</v>
+        <v>9.85</v>
       </c>
       <c r="P42" s="2">
-        <v>17.420000000000002</v>
+        <v>17.62</v>
       </c>
       <c r="Q42" s="2">
-        <v>15.69</v>
+        <v>15.97</v>
       </c>
       <c r="R42" s="2">
-        <v>15.3</v>
+        <v>15.59</v>
       </c>
       <c r="U42" s="2">
-        <v>25.14</v>
+        <v>24.91</v>
       </c>
       <c r="V42" s="2">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="Y42" s="2">
-        <v>32.130000000000003</v>
+        <v>31.87</v>
       </c>
       <c r="Z42" s="2">
-        <v>25.49</v>
+        <v>25.78</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AE42" s="2">
-        <v>21.17</v>
+        <v>20.76</v>
       </c>
       <c r="AF42" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.24</v>
       </c>
       <c r="AK42" s="2">
-        <v>29</v>
+        <v>27.16</v>
       </c>
       <c r="AL42" s="2">
-        <v>4.3769999999999998</v>
+        <v>3.39</v>
       </c>
       <c r="AM42" s="2">
         <v>8</v>
@@ -9031,42 +9033,42 @@
         <v>14.5</v>
       </c>
       <c r="O43" s="2">
-        <v>9.85</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="P43" s="2">
-        <v>17.62</v>
+        <v>17.61</v>
       </c>
       <c r="Q43" s="2">
-        <v>15.97</v>
+        <v>15.73</v>
       </c>
       <c r="R43" s="2">
-        <v>15.59</v>
+        <v>15.85</v>
       </c>
       <c r="U43" s="2">
-        <v>24.91</v>
+        <v>24.75</v>
       </c>
       <c r="V43" s="2">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Y43" s="2">
-        <v>31.87</v>
+        <v>31.72</v>
       </c>
       <c r="Z43" s="2">
-        <v>25.78</v>
+        <v>25.73</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
-      <c r="AE43" s="2">
-        <v>20.76</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>9.24</v>
+      <c r="AE43" s="5">
+        <v>20.57</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>8.93</v>
       </c>
       <c r="AK43" s="2">
-        <v>27.2</v>
+        <v>27.17</v>
       </c>
       <c r="AL43" s="2">
-        <v>3.6</v>
+        <v>2.89</v>
       </c>
       <c r="AM43" s="2">
         <v>8.25</v>
@@ -9111,42 +9113,36 @@
         <v>14.836</v>
       </c>
       <c r="O44" s="2">
-        <v>9.5399999999999991</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="P44" s="2">
-        <v>17.61</v>
+        <v>17.97</v>
       </c>
       <c r="Q44" s="2">
-        <v>15.73</v>
+        <v>14.98</v>
       </c>
       <c r="R44" s="2">
-        <v>15.85</v>
-      </c>
-      <c r="U44" s="2">
-        <v>24.75</v>
-      </c>
-      <c r="V44" s="2">
-        <v>2.95</v>
+        <v>15.87</v>
       </c>
       <c r="Y44" s="2">
-        <v>31.72</v>
+        <v>31.89</v>
       </c>
       <c r="Z44" s="2">
-        <v>25.73</v>
+        <v>25.67</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-      <c r="AE44" s="5">
-        <v>20.57</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>8.93</v>
+      <c r="AE44" s="2">
+        <v>19.07</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>9.69</v>
       </c>
       <c r="AK44" s="2">
-        <v>27.16</v>
+        <v>27.61</v>
       </c>
       <c r="AL44" s="2">
-        <v>3.39</v>
+        <v>2.42</v>
       </c>
       <c r="AM44" s="2">
         <v>8.4</v>
@@ -9191,36 +9187,30 @@
         <v>14.89</v>
       </c>
       <c r="O45" s="2">
-        <v>9.3699999999999992</v>
+        <v>9.1</v>
       </c>
       <c r="P45" s="2">
-        <v>17.97</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="Q45" s="2">
-        <v>14.98</v>
+        <v>14.97</v>
       </c>
       <c r="R45" s="2">
-        <v>15.87</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="Y45" s="2">
-        <v>31.89</v>
+        <v>31.95</v>
       </c>
       <c r="Z45" s="2">
-        <v>25.67</v>
+        <v>25.5</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
-      <c r="AE45" s="2">
-        <v>19.07</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>9.69</v>
-      </c>
       <c r="AK45" s="2">
-        <v>27.17</v>
+        <v>27.856000000000002</v>
       </c>
       <c r="AL45" s="2">
-        <v>2.89</v>
+        <v>1.94</v>
       </c>
       <c r="AM45" s="2">
         <v>8.44</v>
@@ -9265,30 +9255,28 @@
         <v>14.87</v>
       </c>
       <c r="O46" s="2">
-        <v>9.1</v>
+        <v>8.83</v>
       </c>
       <c r="P46" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>14.97</v>
-      </c>
-      <c r="R46" s="2">
-        <v>16.579999999999998</v>
+        <v>18.489999999999998</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="R46" s="3">
+        <v>17.809999999999999</v>
       </c>
       <c r="Y46" s="2">
-        <v>31.95</v>
+        <v>31.84</v>
       </c>
       <c r="Z46" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
+        <v>25.3</v>
+      </c>
       <c r="AK46" s="2">
-        <v>27.61</v>
+        <v>28.14</v>
       </c>
       <c r="AL46" s="2">
-        <v>2.42</v>
+        <v>0.65</v>
       </c>
       <c r="AM46" s="2">
         <v>8.57</v>
@@ -9333,28 +9321,22 @@
         <v>14.47</v>
       </c>
       <c r="O47" s="2">
-        <v>8.83</v>
+        <v>9.06</v>
       </c>
       <c r="P47" s="2">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="R47" s="3">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>31.84</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>25.3</v>
+        <v>18.72</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>16.36</v>
+      </c>
+      <c r="R47" s="2">
+        <v>18.170000000000002</v>
       </c>
       <c r="AK47" s="2">
-        <v>27.856000000000002</v>
+        <v>27.99</v>
       </c>
       <c r="AL47" s="2">
-        <v>1.94</v>
+        <v>0.03</v>
       </c>
       <c r="AM47" s="2">
         <v>8.57</v>
@@ -9399,22 +9381,16 @@
         <v>14.37</v>
       </c>
       <c r="O48" s="2">
-        <v>9.06</v>
+        <v>9.01</v>
       </c>
       <c r="P48" s="2">
-        <v>18.72</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="2">
-        <v>16.36</v>
+        <v>15.23</v>
       </c>
       <c r="R48" s="2">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="AK48" s="2">
-        <v>28.14</v>
-      </c>
-      <c r="AL48" s="2">
-        <v>0.65</v>
+        <v>18.52</v>
       </c>
       <c r="AM48" s="2">
         <v>8.69</v>
@@ -9459,22 +9435,16 @@
         <v>14.17</v>
       </c>
       <c r="O49" s="2">
-        <v>9.01</v>
+        <v>8.73</v>
       </c>
       <c r="P49" s="2">
-        <v>19</v>
+        <v>19.03</v>
       </c>
       <c r="Q49" s="2">
-        <v>15.23</v>
+        <v>14.48</v>
       </c>
       <c r="R49" s="2">
-        <v>18.52</v>
-      </c>
-      <c r="AK49" s="2">
-        <v>27.99</v>
-      </c>
-      <c r="AL49" s="2">
-        <v>0.03</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AM49" s="2">
         <v>8.83</v>
@@ -9519,16 +9489,16 @@
         <v>14.03</v>
       </c>
       <c r="O50" s="2">
-        <v>8.73</v>
+        <v>8.69</v>
       </c>
       <c r="P50" s="2">
-        <v>19.03</v>
+        <v>19.22</v>
       </c>
       <c r="Q50" s="2">
-        <v>14.48</v>
+        <v>15.2</v>
       </c>
       <c r="R50" s="2">
-        <v>19.079999999999998</v>
+        <v>20.27</v>
       </c>
       <c r="AM50" s="2">
         <v>9.07</v>
@@ -9573,16 +9543,16 @@
         <v>14.02</v>
       </c>
       <c r="O51" s="2">
-        <v>8.69</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="P51" s="2">
-        <v>19.22</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="Q51" s="2">
-        <v>15.2</v>
+        <v>13.99</v>
       </c>
       <c r="R51" s="2">
-        <v>20.27</v>
+        <v>20.54</v>
       </c>
       <c r="AM51" s="2">
         <v>9.34</v>
@@ -9627,16 +9597,16 @@
         <v>14.13</v>
       </c>
       <c r="O52" s="2">
-        <v>8.8800000000000008</v>
+        <v>8.77</v>
       </c>
       <c r="P52" s="2">
-        <v>19.510000000000002</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="Q52" s="2">
-        <v>13.99</v>
+        <v>14.14</v>
       </c>
       <c r="R52" s="2">
-        <v>20.54</v>
+        <v>20.97</v>
       </c>
       <c r="AM52" s="2">
         <v>9.6240000000000006</v>
@@ -9681,16 +9651,16 @@
         <v>14.43</v>
       </c>
       <c r="O53" s="2">
-        <v>8.77</v>
+        <v>8.93</v>
       </c>
       <c r="P53" s="2">
-        <v>19.739999999999998</v>
+        <v>20.16</v>
       </c>
       <c r="Q53" s="2">
-        <v>14.14</v>
+        <v>13.2</v>
       </c>
       <c r="R53" s="2">
-        <v>20.97</v>
+        <v>21.4</v>
       </c>
       <c r="AM53" s="2">
         <v>9.59</v>
@@ -9721,16 +9691,16 @@
         <v>14.2</v>
       </c>
       <c r="O54" s="2">
-        <v>8.93</v>
+        <v>8.91</v>
       </c>
       <c r="P54" s="2">
-        <v>20.16</v>
+        <v>20.68</v>
       </c>
       <c r="Q54" s="2">
-        <v>13.2</v>
+        <v>12.91</v>
       </c>
       <c r="R54" s="2">
-        <v>21.4</v>
+        <v>21.28</v>
       </c>
       <c r="AM54" s="2">
         <v>9.41</v>
@@ -9761,16 +9731,16 @@
         <v>13.9</v>
       </c>
       <c r="O55" s="2">
-        <v>8.91</v>
+        <v>9.17</v>
       </c>
       <c r="P55" s="2">
-        <v>20.68</v>
+        <v>20.87</v>
       </c>
       <c r="Q55" s="2">
-        <v>12.91</v>
+        <v>12.47</v>
       </c>
       <c r="R55" s="2">
-        <v>21.28</v>
+        <v>21.29</v>
       </c>
       <c r="AM55" s="2">
         <v>9.48</v>
@@ -9811,16 +9781,16 @@
         <v>9.1</v>
       </c>
       <c r="O56" s="2">
-        <v>9.17</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="P56" s="2">
-        <v>20.87</v>
+        <v>21.2</v>
       </c>
       <c r="Q56" s="2">
-        <v>12.47</v>
+        <v>12.22</v>
       </c>
       <c r="R56" s="2">
-        <v>21.29</v>
+        <v>21.62</v>
       </c>
       <c r="AM56" s="2">
         <v>9.81</v>
@@ -9857,16 +9827,10 @@
         <v>8.67</v>
       </c>
       <c r="O57" s="2">
-        <v>9.2100000000000009</v>
+        <v>9.01</v>
       </c>
       <c r="P57" s="2">
-        <v>21.2</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>12.22</v>
-      </c>
-      <c r="R57" s="2">
-        <v>21.62</v>
+        <v>21.21</v>
       </c>
       <c r="AM57" s="2">
         <v>9.93</v>
@@ -9903,10 +9867,10 @@
         <v>7.76</v>
       </c>
       <c r="O58" s="2">
-        <v>9.01</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="P58" s="2">
-        <v>21.21</v>
+        <v>21.44</v>
       </c>
       <c r="AM58" s="2">
         <v>10.039999999999999</v>
@@ -9943,10 +9907,10 @@
         <v>6.54</v>
       </c>
       <c r="O59" s="2">
-        <v>8.9600000000000009</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="P59" s="2">
-        <v>21.44</v>
+        <v>21.46</v>
       </c>
       <c r="AM59" s="2">
         <v>10.050000000000001</v>
@@ -9983,10 +9947,10 @@
         <v>3.6</v>
       </c>
       <c r="O60" s="2">
-        <v>9.2899999999999991</v>
+        <v>9.59</v>
       </c>
       <c r="P60" s="2">
-        <v>21.46</v>
+        <v>21.69</v>
       </c>
       <c r="AM60" s="2">
         <v>10.029999999999999</v>
@@ -10023,10 +9987,10 @@
         <v>2.12</v>
       </c>
       <c r="O61" s="2">
-        <v>9.59</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="P61" s="2">
-        <v>21.69</v>
+        <v>21.99</v>
       </c>
       <c r="AM61" s="2">
         <v>10.130000000000001</v>
@@ -10034,8 +9998,6 @@
       <c r="AN61" s="2">
         <v>23.55</v>
       </c>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
       <c r="AQ61" s="2">
         <v>10.95</v>
       </c>
@@ -10057,10 +10019,10 @@
     </row>
     <row r="62" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O62" s="2">
-        <v>9.6199999999999992</v>
+        <v>9.94</v>
       </c>
       <c r="P62" s="2">
-        <v>21.99</v>
+        <v>22.23</v>
       </c>
       <c r="AQ62" s="2">
         <v>10.8</v>
@@ -10071,10 +10033,10 @@
     </row>
     <row r="63" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O63" s="2">
-        <v>9.94</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="P63" s="2">
-        <v>22.23</v>
+        <v>22.53</v>
       </c>
       <c r="AQ63" s="2">
         <v>10.82</v>
@@ -10085,10 +10047,10 @@
     </row>
     <row r="64" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O64" s="2">
-        <v>9.9499999999999993</v>
+        <v>9.82</v>
       </c>
       <c r="P64" s="2">
-        <v>22.53</v>
+        <v>22.74</v>
       </c>
       <c r="AQ64" s="2">
         <v>11.01</v>
@@ -10099,10 +10061,10 @@
     </row>
     <row r="65" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O65" s="2">
-        <v>9.82</v>
+        <v>10.02</v>
       </c>
       <c r="P65" s="2">
-        <v>22.74</v>
+        <v>23.03</v>
       </c>
       <c r="AQ65" s="2">
         <v>11.12</v>
@@ -10113,10 +10075,10 @@
     </row>
     <row r="66" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O66" s="2">
-        <v>10.02</v>
+        <v>10.18</v>
       </c>
       <c r="P66" s="2">
-        <v>23.03</v>
+        <v>23.14</v>
       </c>
       <c r="AQ66" s="2">
         <v>10.96</v>
@@ -10130,7 +10092,7 @@
         <v>10.18</v>
       </c>
       <c r="P67" s="2">
-        <v>23.14</v>
+        <v>23.28</v>
       </c>
       <c r="AQ67" s="2">
         <v>10.85</v>
@@ -10141,10 +10103,10 @@
     </row>
     <row r="68" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O68" s="2">
-        <v>10.18</v>
+        <v>8.06</v>
       </c>
       <c r="P68" s="2">
-        <v>23.28</v>
+        <v>22.16</v>
       </c>
       <c r="AQ68" s="2">
         <v>10.91</v>
@@ -10155,10 +10117,10 @@
     </row>
     <row r="69" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O69" s="2">
-        <v>8.06</v>
+        <v>6.94</v>
       </c>
       <c r="P69" s="2">
-        <v>22.16</v>
+        <v>22.21</v>
       </c>
       <c r="AQ69" s="2">
         <v>11.08</v>
@@ -10169,10 +10131,10 @@
     </row>
     <row r="70" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O70" s="2">
-        <v>6.94</v>
+        <v>5.05</v>
       </c>
       <c r="P70" s="2">
-        <v>22.21</v>
+        <v>21.24</v>
       </c>
       <c r="AQ70" s="2">
         <v>11.37</v>
@@ -10183,10 +10145,10 @@
     </row>
     <row r="71" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O71" s="2">
-        <v>5.05</v>
+        <v>4.16</v>
       </c>
       <c r="P71" s="2">
-        <v>21.24</v>
+        <v>21.06</v>
       </c>
       <c r="AQ71" s="2">
         <v>11.37</v>
@@ -10197,10 +10159,10 @@
     </row>
     <row r="72" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O72" s="2">
-        <v>4.16</v>
+        <v>2.89</v>
       </c>
       <c r="P72" s="2">
-        <v>21.06</v>
+        <v>21.46</v>
       </c>
       <c r="AQ72" s="2">
         <v>11.55</v>
@@ -10211,10 +10173,10 @@
     </row>
     <row r="73" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O73" s="2">
-        <v>2.89</v>
+        <v>1.55</v>
       </c>
       <c r="P73" s="2">
-        <v>21.46</v>
+        <v>21.37</v>
       </c>
       <c r="AQ73" s="2">
         <v>11.65</v>
@@ -10225,10 +10187,10 @@
     </row>
     <row r="74" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
       <c r="O74" s="2">
-        <v>1.55</v>
+        <v>0.65</v>
       </c>
       <c r="P74" s="2">
-        <v>21.37</v>
+        <v>21.75</v>
       </c>
       <c r="AQ74" s="2">
         <v>11.76</v>
@@ -10238,12 +10200,6 @@
       </c>
     </row>
     <row r="75" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="O75" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="P75" s="2">
-        <v>21.75</v>
-      </c>
       <c r="AQ75" s="2">
         <v>11.68</v>
       </c>

--- a/BookdownData/LeafletData.xlsx
+++ b/BookdownData/LeafletData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3D8058-0547-4C4F-A0AD-4FD1A420EDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50359DF-51C5-4A14-9C84-6F69C3EA0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GroßreicheDaten" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -914,6 +914,39 @@
   </si>
   <si>
     <t>Elfen</t>
+  </si>
+  <si>
+    <t>LongT</t>
+  </si>
+  <si>
+    <t>LatT</t>
+  </si>
+  <si>
+    <t>LongTH</t>
+  </si>
+  <si>
+    <t>LatTH</t>
+  </si>
+  <si>
+    <t>Ollan</t>
+  </si>
+  <si>
+    <t>https://svalv.github.io/Orbis/yondalla.html</t>
+  </si>
+  <si>
+    <t>Esunpet</t>
+  </si>
+  <si>
+    <t>Wisunpet</t>
+  </si>
+  <si>
+    <t>Quissa</t>
+  </si>
+  <si>
+    <t>Bokarun</t>
+  </si>
+  <si>
+    <t>Napnopet</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1089,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1077,6 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1443,11 +1477,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B94A-6550-4670-8CAE-A12B8E455EB7}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3169,7 +3203,7 @@
         <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.5">
@@ -3493,6 +3527,194 @@
         <v>70</v>
       </c>
       <c r="I77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
+        <v>245</v>
+      </c>
+      <c r="B78" s="15">
+        <v>660000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>36.6</v>
+      </c>
+      <c r="F78">
+        <v>4.17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>297</v>
+      </c>
+      <c r="H78" t="s">
+        <v>98</v>
+      </c>
+      <c r="I78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="15">
+        <v>110000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="F79">
+        <v>6.94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>297</v>
+      </c>
+      <c r="H79" t="s">
+        <v>98</v>
+      </c>
+      <c r="I79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <v>7.88</v>
+      </c>
+      <c r="F80">
+        <v>9.26</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81">
+        <v>10.49</v>
+      </c>
+      <c r="F81">
+        <v>11.95</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82">
+        <v>5.22</v>
+      </c>
+      <c r="F82">
+        <v>7.97</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83">
+        <v>0.88</v>
+      </c>
+      <c r="F83">
+        <v>14.12</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F84">
+        <v>10.67</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3528,9 +3750,19 @@
     <hyperlink ref="H73" r:id="rId28" xr:uid="{2D2662D0-878B-4FF6-BB68-795183AED372}"/>
     <hyperlink ref="H61" r:id="rId29" xr:uid="{D6C48FCC-1068-4D52-B111-3BCCAF9B2BDF}"/>
     <hyperlink ref="H76" r:id="rId30" xr:uid="{C55AACDF-CD9A-4B5D-B53E-035EC4FA4285}"/>
+    <hyperlink ref="H80" r:id="rId31" xr:uid="{35EFC6D0-D206-489C-BB03-2F4F287F3D1D}"/>
+    <hyperlink ref="H81" r:id="rId32" xr:uid="{78171C8F-535D-43BD-8B3F-93C23205AAD3}"/>
+    <hyperlink ref="H82" r:id="rId33" xr:uid="{3DCC5BC6-1FE6-46D4-A492-B1EB74541A26}"/>
+    <hyperlink ref="G80" r:id="rId34" xr:uid="{E2F30880-B6FF-4D5B-A4A2-24B5091EA509}"/>
+    <hyperlink ref="G81" r:id="rId35" xr:uid="{EFE46CB9-9496-4816-BB01-538B6BADA0B0}"/>
+    <hyperlink ref="G82" r:id="rId36" xr:uid="{E2FD4F4F-F734-426F-A292-4C126C5CB273}"/>
+    <hyperlink ref="H83" r:id="rId37" xr:uid="{4B379D6E-6CD6-4AC6-9618-365ED12D7D76}"/>
+    <hyperlink ref="H84" r:id="rId38" xr:uid="{176D56E9-8954-4FC6-A975-782A12D1F271}"/>
+    <hyperlink ref="G83" r:id="rId39" xr:uid="{C1EE0C97-4911-484C-BD75-5AC22325FF0B}"/>
+    <hyperlink ref="G84" r:id="rId40" xr:uid="{1D039E34-8E49-41E2-B6FD-E445C3DE4F93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -3539,10 +3771,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD186"/>
+  <dimension ref="A1:BH186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BH11" sqref="BH11"/>
+    <sheetView topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BG4" sqref="BG4:BH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3550,7 +3782,7 @@
     <col min="1" max="16384" width="14.41015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -3719,8 +3951,20 @@
       <c r="BD1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -3883,8 +4127,20 @@
       <c r="BD2" s="3">
         <v>28.43</v>
       </c>
-    </row>
-    <row r="3" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE2" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>4.5</v>
       </c>
@@ -4053,8 +4309,20 @@
       <c r="BD3" s="2">
         <v>28.26</v>
       </c>
-    </row>
-    <row r="4" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE3" s="1">
+        <v>26</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>27.75</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>4.25</v>
       </c>
@@ -4223,8 +4491,20 @@
       <c r="BD4" s="2">
         <v>28.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE4" s="1">
+        <v>25</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>30</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="BH4" s="20">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3.89</v>
       </c>
@@ -4393,8 +4673,20 @@
       <c r="BD5" s="2">
         <v>27.97</v>
       </c>
-    </row>
-    <row r="6" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BE5" s="1">
+        <v>31</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>30</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>3.5</v>
       </c>
@@ -4564,7 +4856,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3.6</v>
       </c>
@@ -4734,7 +5026,7 @@
         <v>27.62</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>3.42</v>
       </c>
@@ -4904,7 +5196,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3.64</v>
       </c>
@@ -5074,7 +5366,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3.76</v>
       </c>
@@ -5244,7 +5536,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="11" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>3.55</v>
       </c>
@@ -5404,7 +5696,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>3.395</v>
       </c>
@@ -5558,7 +5850,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2.6</v>
       </c>
@@ -5706,7 +5998,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="14" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1.85</v>
       </c>
@@ -5854,7 +6146,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>1.52</v>
       </c>
@@ -6002,7 +6294,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>1.02</v>
       </c>

--- a/BookdownData/LeafletData.xlsx
+++ b/BookdownData/LeafletData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50359DF-51C5-4A14-9C84-6F69C3EA0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306670AE-A0B2-4ACD-BD7C-5E5F9F44337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,7 +1481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3592,6 +3592,9 @@
       <c r="A80" t="s">
         <v>298</v>
       </c>
+      <c r="B80" s="15">
+        <v>125000</v>
+      </c>
       <c r="C80" t="s">
         <v>113</v>
       </c>
@@ -3618,6 +3621,9 @@
       <c r="A81" t="s">
         <v>299</v>
       </c>
+      <c r="B81" s="15">
+        <v>125000</v>
+      </c>
       <c r="C81" t="s">
         <v>113</v>
       </c>
@@ -3644,6 +3650,9 @@
       <c r="A82" t="s">
         <v>300</v>
       </c>
+      <c r="B82" s="15">
+        <v>80000</v>
+      </c>
       <c r="C82" t="s">
         <v>113</v>
       </c>
@@ -3670,6 +3679,9 @@
       <c r="A83" t="s">
         <v>301</v>
       </c>
+      <c r="B83" s="15">
+        <v>5000</v>
+      </c>
       <c r="C83" t="s">
         <v>113</v>
       </c>
@@ -3695,6 +3707,9 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>302</v>
+      </c>
+      <c r="B84" s="15">
+        <v>225000</v>
       </c>
       <c r="C84" t="s">
         <v>113</v>

--- a/BookdownData/LeafletData.xlsx
+++ b/BookdownData/LeafletData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306670AE-A0B2-4ACD-BD7C-5E5F9F44337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69079C6E-FC8A-4A9A-9910-9B1B84E8DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GroßreicheDaten" sheetId="1" r:id="rId1"/>
@@ -989,7 +989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,6 +1050,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1089,7 +1095,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1111,6 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1479,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973B94A-6550-4670-8CAE-A12B8E455EB7}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
@@ -3788,8 +3795,8 @@
   </sheetPr>
   <dimension ref="A1:BH186"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BG4" sqref="BG4:BH5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4550,10 +4557,10 @@
       <c r="J5" s="2">
         <v>3.59</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="21">
         <v>15.02</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="21">
         <v>9.76</v>
       </c>
       <c r="M5" s="2">
@@ -4732,11 +4739,11 @@
       <c r="J6" s="2">
         <v>5.34</v>
       </c>
-      <c r="K6" s="2">
-        <v>14.66</v>
-      </c>
-      <c r="L6" s="2">
-        <v>10.93</v>
+      <c r="K6" s="21">
+        <v>15.3</v>
+      </c>
+      <c r="L6" s="21">
+        <v>10.45</v>
       </c>
       <c r="M6" s="4">
         <v>5.17</v>
@@ -4792,10 +4799,10 @@
       <c r="AD6" s="2">
         <v>5.64</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="21">
         <v>15.3</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="21">
         <v>10.45</v>
       </c>
       <c r="AG6" s="2">
@@ -4903,10 +4910,10 @@
         <v>5.8</v>
       </c>
       <c r="K7" s="2">
-        <v>13.545999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="L7" s="2">
-        <v>12.243</v>
+        <v>11.04</v>
       </c>
       <c r="M7" s="2">
         <v>5.26</v>
@@ -5073,10 +5080,10 @@
         <v>7</v>
       </c>
       <c r="K8" s="2">
-        <v>13.26</v>
+        <v>14.44</v>
       </c>
       <c r="L8" s="2">
-        <v>12.32</v>
+        <v>11.83</v>
       </c>
       <c r="M8" s="2">
         <v>4.01</v>
@@ -5243,10 +5250,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="K9" s="2">
-        <v>11.7</v>
+        <v>13.83</v>
       </c>
       <c r="L9" s="2">
-        <v>12.06</v>
+        <v>12.26</v>
       </c>
       <c r="M9" s="2">
         <v>2.8</v>
@@ -5412,12 +5419,8 @@
       <c r="J10" s="2">
         <v>9.67</v>
       </c>
-      <c r="K10" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>10.914</v>
-      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2">
         <v>2.39</v>
       </c>
@@ -5583,10 +5586,10 @@
         <v>10.914</v>
       </c>
       <c r="K11" s="2">
-        <v>8.94</v>
+        <v>13.545999999999999</v>
       </c>
       <c r="L11" s="2">
-        <v>9.67</v>
+        <v>12.243</v>
       </c>
       <c r="O11" s="2">
         <v>1.4</v>
@@ -5737,10 +5740,10 @@
         <v>12.06</v>
       </c>
       <c r="K12" s="2">
-        <v>8.0500000000000007</v>
+        <v>13.26</v>
       </c>
       <c r="L12" s="2">
-        <v>8.1999999999999993</v>
+        <v>12.32</v>
       </c>
       <c r="O12" s="2">
         <v>1.65</v>
@@ -5891,10 +5894,10 @@
         <v>12.32</v>
       </c>
       <c r="K13" s="2">
-        <v>8</v>
+        <v>11.7</v>
       </c>
       <c r="L13" s="2">
-        <v>7</v>
+        <v>12.06</v>
       </c>
       <c r="O13" s="2">
         <v>1.94</v>
@@ -6038,11 +6041,11 @@
       <c r="J14" s="2">
         <v>12.38</v>
       </c>
-      <c r="K14" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="L14" s="6">
-        <v>5.8</v>
+      <c r="K14" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10.914</v>
       </c>
       <c r="O14" s="2">
         <v>2.14</v>
@@ -6187,10 +6190,10 @@
         <v>13.8</v>
       </c>
       <c r="K15" s="2">
-        <v>9.19</v>
+        <v>8.94</v>
       </c>
       <c r="L15" s="2">
-        <v>5.867</v>
+        <v>9.67</v>
       </c>
       <c r="O15" s="2">
         <v>2.39</v>
@@ -6335,10 +6338,10 @@
         <v>14.34</v>
       </c>
       <c r="K16" s="2">
-        <v>10.14</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="L16" s="2">
-        <v>6.08</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O16" s="2">
         <v>2.8</v>
@@ -6482,6 +6485,12 @@
       <c r="J17" s="2">
         <v>14.75</v>
       </c>
+      <c r="K17" s="2">
+        <v>8</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7</v>
+      </c>
       <c r="O17" s="2">
         <v>4.01</v>
       </c>
@@ -6624,6 +6633,12 @@
       <c r="J18" s="2">
         <v>14.99</v>
       </c>
+      <c r="K18" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5.8</v>
+      </c>
       <c r="O18" s="2">
         <v>5.26</v>
       </c>
@@ -6768,6 +6783,12 @@
       <c r="J19" s="2">
         <v>15.27</v>
       </c>
+      <c r="K19" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5.867</v>
+      </c>
       <c r="O19" s="2">
         <v>5.6</v>
       </c>
@@ -6911,6 +6932,12 @@
       </c>
       <c r="J20" s="2">
         <v>15.3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10.14</v>
+      </c>
+      <c r="L20" s="2">
+        <v>6.08</v>
       </c>
       <c r="O20" s="2">
         <v>5.88</v>

--- a/BookdownData/LeafletData.xlsx
+++ b/BookdownData/LeafletData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69079C6E-FC8A-4A9A-9910-9B1B84E8DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF80EBF-705F-471F-89B3-E84E96BC21E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GroßreicheDaten" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="309">
   <si>
     <t>Name</t>
   </si>
@@ -947,6 +947,24 @@
   </si>
   <si>
     <t>Napnopet</t>
+  </si>
+  <si>
+    <t>Gering</t>
+  </si>
+  <si>
+    <t>sehr gering</t>
+  </si>
+  <si>
+    <t>hoch</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>gering</t>
+  </si>
+  <si>
+    <t>sehr hoch</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1115,7 +1133,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1406,12 +1423,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.87890625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1472,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1491,13 +1508,13 @@
       <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.41015625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -1555,7 +1572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -1584,7 +1601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -1607,7 +1624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -1659,7 +1676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -1682,7 +1699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -1728,7 +1745,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -1757,7 +1774,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -1780,7 +1797,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -1809,7 +1826,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -1832,7 +1849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -1855,7 +1872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -1884,7 +1901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -1913,7 +1930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -1959,7 +1976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -1982,7 +1999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2005,7 +2022,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -2028,7 +2045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -2051,7 +2068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -2074,7 +2091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -2097,7 +2114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -2120,7 +2137,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -2149,7 +2166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -2172,7 +2189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -2198,7 +2215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -2221,7 +2238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -2250,7 +2267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>157</v>
       </c>
@@ -2279,7 +2296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -2302,7 +2319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -2348,7 +2365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -2377,7 +2394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -2406,7 +2423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -2435,7 +2452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -2493,7 +2510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -2522,7 +2539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -2551,7 +2568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -2577,7 +2594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -2606,7 +2623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -2635,7 +2652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -2661,7 +2678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2687,7 +2704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -2716,7 +2733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -2774,7 +2791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -2803,7 +2820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -2832,7 +2849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -2861,7 +2878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -2890,7 +2907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -2919,7 +2936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -2971,7 +2988,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -2994,7 +3011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -3017,7 +3034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -3073,7 +3090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -3102,7 +3119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -3132,7 +3149,7 @@
       </c>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -3158,7 +3175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -3213,7 +3230,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -3242,7 +3259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -3271,7 +3288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3300,7 +3317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -3378,7 +3395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -3427,7 +3444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -3453,7 +3470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3511,7 +3528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -3537,7 +3554,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -3566,7 +3583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>296</v>
       </c>
@@ -3595,7 +3612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>298</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>299</v>
       </c>
@@ -3653,7 +3670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>300</v>
       </c>
@@ -3682,7 +3699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>301</v>
       </c>
@@ -3711,7 +3728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>302</v>
       </c>
@@ -3795,16 +3812,16 @@
   </sheetPr>
   <dimension ref="A1:BH186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="14.41015625" style="1"/>
+    <col min="1" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -3986,7 +4003,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4.5</v>
       </c>
@@ -4344,7 +4361,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4.25</v>
       </c>
@@ -4522,11 +4539,11 @@
       <c r="BG4" s="1">
         <v>31.2</v>
       </c>
-      <c r="BH4" s="20">
+      <c r="BH4" s="19">
         <v>29.2</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.89</v>
       </c>
@@ -4557,10 +4574,10 @@
       <c r="J5" s="2">
         <v>3.59</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>15.02</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>9.76</v>
       </c>
       <c r="M5" s="2">
@@ -4708,7 +4725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3.5</v>
       </c>
@@ -4739,10 +4756,10 @@
       <c r="J6" s="2">
         <v>5.34</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>15.3</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>10.45</v>
       </c>
       <c r="M6" s="4">
@@ -4799,10 +4816,10 @@
       <c r="AD6" s="2">
         <v>5.64</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="20">
         <v>15.3</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="20">
         <v>10.45</v>
       </c>
       <c r="AG6" s="2">
@@ -4878,7 +4895,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3.6</v>
       </c>
@@ -5048,7 +5065,7 @@
         <v>27.62</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3.42</v>
       </c>
@@ -5218,7 +5235,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3.64</v>
       </c>
@@ -5388,7 +5405,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3.76</v>
       </c>
@@ -5554,7 +5571,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3.55</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3.395</v>
       </c>
@@ -5868,7 +5885,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.6</v>
       </c>
@@ -6016,7 +6033,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.85</v>
       </c>
@@ -6164,7 +6181,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.52</v>
       </c>
@@ -6312,7 +6329,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.02</v>
       </c>
@@ -6460,7 +6477,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="17" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.56999999999999995</v>
       </c>
@@ -6608,7 +6625,7 @@
         <v>26.96</v>
       </c>
     </row>
-    <row r="18" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.36799999999999999</v>
       </c>
@@ -6758,7 +6775,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="19" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6908,7 +6925,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="20" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -7058,7 +7075,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="21" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>3.42</v>
       </c>
@@ -7192,7 +7209,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="22" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <v>3.6</v>
       </c>
@@ -7322,7 +7339,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="23" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <v>3.5</v>
       </c>
@@ -7452,7 +7469,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <v>3.89</v>
       </c>
@@ -7582,7 +7599,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="25" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <v>4.25</v>
       </c>
@@ -7658,10 +7675,10 @@
       </c>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="19">
+      <c r="AI25" s="2">
         <v>34.9</v>
       </c>
-      <c r="AJ25" s="19">
+      <c r="AJ25" s="2">
         <v>8.9</v>
       </c>
       <c r="AK25" s="2">
@@ -7713,7 +7730,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <v>4.5</v>
       </c>
@@ -7845,7 +7862,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="27" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -7971,7 +7988,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="28" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
         <v>9.14</v>
       </c>
@@ -8087,7 +8104,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="29" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="2">
         <v>8.8000000000000007</v>
       </c>
@@ -8203,7 +8220,7 @@
         <v>28.37</v>
       </c>
     </row>
-    <row r="30" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="2">
         <v>8.4700000000000006</v>
       </c>
@@ -8319,7 +8336,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="31" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="2">
         <v>7.9980000000000002</v>
       </c>
@@ -8419,7 +8436,7 @@
       <c r="BC31" s="2"/>
       <c r="BD31" s="2"/>
     </row>
-    <row r="32" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="2">
         <v>7.17</v>
       </c>
@@ -8513,7 +8530,7 @@
       <c r="BC32" s="2"/>
       <c r="BD32" s="2"/>
     </row>
-    <row r="33" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
@@ -8609,7 +8626,7 @@
       <c r="BC33" s="2"/>
       <c r="BD33" s="2"/>
     </row>
-    <row r="34" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2">
@@ -8705,7 +8722,7 @@
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
     </row>
-    <row r="35" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="2">
         <v>5.5</v>
       </c>
@@ -8797,7 +8814,7 @@
       <c r="BC35" s="2"/>
       <c r="BD35" s="2"/>
     </row>
-    <row r="36" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="4">
         <v>5.17</v>
       </c>
@@ -8887,7 +8904,7 @@
       <c r="BC36" s="2"/>
       <c r="BD36" s="2"/>
     </row>
-    <row r="37" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="7:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="2">
         <v>4.79</v>
       </c>
@@ -8965,7 +8982,7 @@
       <c r="BC37" s="2"/>
       <c r="BD37" s="2"/>
     </row>
-    <row r="38" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I38" s="2">
         <v>3.45</v>
       </c>
@@ -9043,7 +9060,7 @@
       <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
     </row>
-    <row r="39" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I39" s="2">
         <v>2.82</v>
       </c>
@@ -9121,7 +9138,7 @@
       <c r="BC39" s="2"/>
       <c r="BD39" s="2"/>
     </row>
-    <row r="40" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I40" s="2">
         <v>2.42</v>
       </c>
@@ -9199,7 +9216,7 @@
       <c r="BC40" s="2"/>
       <c r="BD40" s="2"/>
     </row>
-    <row r="41" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I41" s="2">
         <v>2.09</v>
       </c>
@@ -9279,7 +9296,7 @@
       <c r="BC41" s="2"/>
       <c r="BD41" s="2"/>
     </row>
-    <row r="42" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I42" s="2">
         <v>1.35</v>
       </c>
@@ -9359,7 +9376,7 @@
       <c r="BC42" s="2"/>
       <c r="BD42" s="2"/>
     </row>
-    <row r="43" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I43" s="2">
         <v>1.05</v>
       </c>
@@ -9439,7 +9456,7 @@
       <c r="BC43" s="2"/>
       <c r="BD43" s="2"/>
     </row>
-    <row r="44" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I44" s="2">
         <v>0.94</v>
       </c>
@@ -9513,7 +9530,7 @@
       <c r="BC44" s="2"/>
       <c r="BD44" s="2"/>
     </row>
-    <row r="45" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I45" s="2">
         <v>0.84399999999999997</v>
       </c>
@@ -9581,7 +9598,7 @@
       <c r="BC45" s="2"/>
       <c r="BD45" s="2"/>
     </row>
-    <row r="46" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I46" s="2">
         <v>0.73</v>
       </c>
@@ -9647,7 +9664,7 @@
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
     </row>
-    <row r="47" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I47" s="2">
         <v>0.625</v>
       </c>
@@ -9707,7 +9724,7 @@
       <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
     </row>
-    <row r="48" spans="7:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="7:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I48" s="2">
         <v>0.48</v>
       </c>
@@ -9761,7 +9778,7 @@
       <c r="BC48" s="2"/>
       <c r="BD48" s="2"/>
     </row>
-    <row r="49" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I49" s="2">
         <v>0.48</v>
       </c>
@@ -9815,7 +9832,7 @@
       <c r="BC49" s="2"/>
       <c r="BD49" s="2"/>
     </row>
-    <row r="50" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I50" s="2">
         <v>0.41</v>
       </c>
@@ -9869,7 +9886,7 @@
       <c r="BC50" s="2"/>
       <c r="BD50" s="2"/>
     </row>
-    <row r="51" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I51" s="2">
         <v>0.24</v>
       </c>
@@ -9923,7 +9940,7 @@
       <c r="BC51" s="2"/>
       <c r="BD51" s="2"/>
     </row>
-    <row r="52" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I52" s="2">
         <v>0.09</v>
       </c>
@@ -9977,7 +9994,7 @@
       <c r="BC52" s="2"/>
       <c r="BD52" s="2"/>
     </row>
-    <row r="53" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <v>0.14000000000000001</v>
       </c>
@@ -10017,7 +10034,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="54" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I54" s="2">
         <v>0</v>
       </c>
@@ -10057,7 +10074,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="55" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I55" s="2">
         <v>0</v>
       </c>
@@ -10107,7 +10124,7 @@
       <c r="BC55" s="2"/>
       <c r="BD55" s="2"/>
     </row>
-    <row r="56" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I56" s="2">
         <v>0</v>
       </c>
@@ -10153,7 +10170,7 @@
       <c r="BC56" s="2"/>
       <c r="BD56" s="2"/>
     </row>
-    <row r="57" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I57" s="2">
         <v>1.258</v>
       </c>
@@ -10193,7 +10210,7 @@
       <c r="BC57" s="2"/>
       <c r="BD57" s="2"/>
     </row>
-    <row r="58" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I58" s="2">
         <v>1.92</v>
       </c>
@@ -10233,7 +10250,7 @@
       <c r="BC58" s="2"/>
       <c r="BD58" s="2"/>
     </row>
-    <row r="59" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I59" s="2">
         <v>5</v>
       </c>
@@ -10273,7 +10290,7 @@
       <c r="BC59" s="2"/>
       <c r="BD59" s="2"/>
     </row>
-    <row r="60" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I60" s="2">
         <v>6.17</v>
       </c>
@@ -10313,7 +10330,7 @@
       <c r="BC60" s="2"/>
       <c r="BD60" s="2"/>
     </row>
-    <row r="61" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I61" s="2">
         <v>5.9</v>
       </c>
@@ -10351,7 +10368,7 @@
       <c r="BC61" s="2"/>
       <c r="BD61" s="2"/>
     </row>
-    <row r="62" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="62" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O62" s="2">
         <v>9.94</v>
       </c>
@@ -10365,7 +10382,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="63" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="63" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O63" s="2">
         <v>9.9499999999999993</v>
       </c>
@@ -10379,7 +10396,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="64" spans="9:56" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="64" spans="9:56" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O64" s="2">
         <v>9.82</v>
       </c>
@@ -10393,7 +10410,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="65" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="65" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O65" s="2">
         <v>10.02</v>
       </c>
@@ -10407,7 +10424,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="66" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="66" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O66" s="2">
         <v>10.18</v>
       </c>
@@ -10421,7 +10438,7 @@
         <v>26.84</v>
       </c>
     </row>
-    <row r="67" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="67" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O67" s="2">
         <v>10.18</v>
       </c>
@@ -10435,7 +10452,7 @@
         <v>26.98</v>
       </c>
     </row>
-    <row r="68" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="68" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O68" s="2">
         <v>8.06</v>
       </c>
@@ -10449,7 +10466,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="69" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="69" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O69" s="2">
         <v>6.94</v>
       </c>
@@ -10463,7 +10480,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="70" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="70" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O70" s="2">
         <v>5.05</v>
       </c>
@@ -10477,7 +10494,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="71" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="71" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O71" s="2">
         <v>4.16</v>
       </c>
@@ -10491,7 +10508,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="72" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="72" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O72" s="2">
         <v>2.89</v>
       </c>
@@ -10505,7 +10522,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="73" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="73" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O73" s="2">
         <v>1.55</v>
       </c>
@@ -10519,7 +10536,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="74" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O74" s="2">
         <v>0.65</v>
       </c>
@@ -10533,7 +10550,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="75" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="75" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ75" s="2">
         <v>11.68</v>
       </c>
@@ -10541,7 +10558,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="76" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="76" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ76" s="2">
         <v>11.54</v>
       </c>
@@ -10549,7 +10566,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="77" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="77" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ77" s="2">
         <v>11.51</v>
       </c>
@@ -10557,7 +10574,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="78" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="78" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ78" s="2">
         <v>11.41</v>
       </c>
@@ -10565,7 +10582,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="79" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="79" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ79" s="2">
         <v>11.55</v>
       </c>
@@ -10573,7 +10590,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="80" spans="15:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="80" spans="15:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ80" s="2">
         <v>11.76</v>
       </c>
@@ -10581,7 +10598,7 @@
         <v>27.76</v>
       </c>
     </row>
-    <row r="81" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="81" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ81" s="2">
         <v>11.94</v>
       </c>
@@ -10589,7 +10606,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="82" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="82" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ82" s="2">
         <v>12.37</v>
       </c>
@@ -10597,7 +10614,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="83" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="83" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ83" s="2">
         <v>12.41</v>
       </c>
@@ -10605,7 +10622,7 @@
         <v>27.92</v>
       </c>
     </row>
-    <row r="84" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="84" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ84" s="2">
         <v>12.29</v>
       </c>
@@ -10613,7 +10630,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="85" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="85" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ85" s="2">
         <v>12.35</v>
       </c>
@@ -10621,7 +10638,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="86" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="86" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ86" s="2">
         <v>12.45</v>
       </c>
@@ -10629,7 +10646,7 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="87" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="87" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ87" s="2">
         <v>12.75</v>
       </c>
@@ -10637,7 +10654,7 @@
         <v>27.22</v>
       </c>
     </row>
-    <row r="88" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="88" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ88" s="2">
         <v>12.67</v>
       </c>
@@ -10645,7 +10662,7 @@
         <v>27.37</v>
       </c>
     </row>
-    <row r="89" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="89" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ89" s="2">
         <v>12.47</v>
       </c>
@@ -10653,7 +10670,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="90" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="90" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ90" s="2">
         <v>12.58</v>
       </c>
@@ -10661,7 +10678,7 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="91" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="91" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ91" s="2">
         <v>12.57</v>
       </c>
@@ -10669,7 +10686,7 @@
         <v>28.08</v>
       </c>
     </row>
-    <row r="92" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="92" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ92" s="2">
         <v>12.71</v>
       </c>
@@ -10677,7 +10694,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="93" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="93" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ93" s="2">
         <v>12.76</v>
       </c>
@@ -10685,7 +10702,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="94" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="94" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ94" s="2">
         <v>12.88</v>
       </c>
@@ -10693,7 +10710,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="95" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="95" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ95" s="2">
         <v>12.91</v>
       </c>
@@ -10701,7 +10718,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="96" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="96" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ96" s="2">
         <v>13.1</v>
       </c>
@@ -10709,7 +10726,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="97" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="97" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ97" s="2">
         <v>13.4</v>
       </c>
@@ -10717,7 +10734,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="98" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="98" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ98" s="2">
         <v>13.42</v>
       </c>
@@ -10725,7 +10742,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="99" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="99" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ99" s="2">
         <v>13.66</v>
       </c>
@@ -10733,7 +10750,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="100" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="100" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ100" s="2">
         <v>13.89</v>
       </c>
@@ -10741,7 +10758,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="101" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="101" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ101" s="2">
         <v>14.18</v>
       </c>
@@ -10749,7 +10766,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="102" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="102" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ102" s="2">
         <v>14.29</v>
       </c>
@@ -10757,7 +10774,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="103" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="103" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ103" s="2">
         <v>14.23</v>
       </c>
@@ -10765,7 +10782,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="104" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="104" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ104" s="2">
         <v>14.27</v>
       </c>
@@ -10773,7 +10790,7 @@
         <v>27.74</v>
       </c>
     </row>
-    <row r="105" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="105" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ105" s="2">
         <v>14.12</v>
       </c>
@@ -10781,7 +10798,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="106" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="106" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ106" s="2">
         <v>14.12</v>
       </c>
@@ -10789,7 +10806,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="107" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="107" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ107" s="2">
         <v>14.33</v>
       </c>
@@ -10797,7 +10814,7 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="108" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="108" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ108" s="2">
         <v>14.39</v>
       </c>
@@ -10805,7 +10822,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="109" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="109" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ109" s="2">
         <v>14.56</v>
       </c>
@@ -10813,7 +10830,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="110" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="110" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ110" s="2">
         <v>14.83</v>
       </c>
@@ -10821,7 +10838,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="111" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="111" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ111" s="2">
         <v>14.9</v>
       </c>
@@ -10829,7 +10846,7 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="112" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="112" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ112" s="2">
         <v>14.75</v>
       </c>
@@ -10837,7 +10854,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="113" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="113" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ113" s="2">
         <v>15.03</v>
       </c>
@@ -10845,7 +10862,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="114" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="114" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ114" s="2">
         <v>15.46</v>
       </c>
@@ -10853,7 +10870,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="115" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="115" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ115" s="2">
         <v>15.68</v>
       </c>
@@ -10861,7 +10878,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="116" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="116" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ116" s="2">
         <v>15.88</v>
       </c>
@@ -10869,7 +10886,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="117" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="117" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ117" s="2">
         <v>16.09</v>
       </c>
@@ -10877,7 +10894,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="118" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="118" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ118" s="2">
         <v>16.309999999999999</v>
       </c>
@@ -10885,7 +10902,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="119" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="119" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ119" s="2">
         <v>16.38</v>
       </c>
@@ -10893,7 +10910,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="120" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="120" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ120" s="2">
         <v>16.559999999999999</v>
       </c>
@@ -10901,7 +10918,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="121" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="121" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ121" s="2">
         <v>16.59</v>
       </c>
@@ -10909,7 +10926,7 @@
         <v>27.13</v>
       </c>
     </row>
-    <row r="122" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="122" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ122" s="2">
         <v>16.5</v>
       </c>
@@ -10917,7 +10934,7 @@
         <v>26.98</v>
       </c>
     </row>
-    <row r="123" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="123" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ123" s="2">
         <v>16.22</v>
       </c>
@@ -10925,7 +10942,7 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="124" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="124" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ124" s="2">
         <v>16.22</v>
       </c>
@@ -10933,7 +10950,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="125" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="125" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ125" s="2">
         <v>16.14</v>
       </c>
@@ -10941,7 +10958,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="126" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="126" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ126" s="2">
         <v>16.239999999999998</v>
       </c>
@@ -10949,7 +10966,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="127" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="127" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ127" s="2">
         <v>16.3</v>
       </c>
@@ -10957,7 +10974,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="128" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="128" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ128" s="2">
         <v>16.510000000000002</v>
       </c>
@@ -10965,7 +10982,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="129" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="129" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ129" s="2">
         <v>16.59</v>
       </c>
@@ -10973,7 +10990,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="130" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="130" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ130" s="2">
         <v>16.670000000000002</v>
       </c>
@@ -10981,7 +10998,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="131" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="131" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ131" s="2">
         <v>17.100000000000001</v>
       </c>
@@ -10989,7 +11006,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="132" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="132" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ132" s="2">
         <v>17.13</v>
       </c>
@@ -10997,7 +11014,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="133" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="133" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ133" s="2">
         <v>17.010000000000002</v>
       </c>
@@ -11005,7 +11022,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="134" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="134" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ134" s="2">
         <v>17.13</v>
       </c>
@@ -11013,7 +11030,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="135" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="135" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ135" s="2">
         <v>17.350000000000001</v>
       </c>
@@ -11021,7 +11038,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="136" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="136" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ136" s="2">
         <v>17.47</v>
       </c>
@@ -11029,7 +11046,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="137" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="137" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ137" s="2">
         <v>17.5</v>
       </c>
@@ -11037,7 +11054,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="138" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="138" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ138" s="2">
         <v>17.14</v>
       </c>
@@ -11045,7 +11062,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="139" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="139" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ139" s="2">
         <v>17.11</v>
       </c>
@@ -11053,7 +11070,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="140" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="140" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ140" s="2">
         <v>17.25</v>
       </c>
@@ -11061,7 +11078,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="141" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="141" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ141" s="2">
         <v>17.36</v>
       </c>
@@ -11069,7 +11086,7 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="142" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="142" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ142" s="2">
         <v>17.28</v>
       </c>
@@ -11077,7 +11094,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="143" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="143" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ143" s="2">
         <v>17.38</v>
       </c>
@@ -11085,7 +11102,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="144" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="144" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ144" s="2">
         <v>17.71</v>
       </c>
@@ -11093,7 +11110,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="145" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="145" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ145" s="2">
         <v>17.809999999999999</v>
       </c>
@@ -11101,7 +11118,7 @@
         <v>25.04</v>
       </c>
     </row>
-    <row r="146" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="146" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ146" s="2">
         <v>18.03</v>
       </c>
@@ -11109,7 +11126,7 @@
         <v>24.89</v>
       </c>
     </row>
-    <row r="147" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="147" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ147" s="2">
         <v>17.97</v>
       </c>
@@ -11117,7 +11134,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="148" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="148" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ148" s="2">
         <v>17.850000000000001</v>
       </c>
@@ -11125,7 +11142,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="149" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="149" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ149" s="2">
         <v>17.809999999999999</v>
       </c>
@@ -11133,7 +11150,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="150" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="150" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ150" s="2">
         <v>17.600000000000001</v>
       </c>
@@ -11141,7 +11158,7 @@
         <v>24.27</v>
       </c>
     </row>
-    <row r="151" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="151" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ151" s="2">
         <v>17.45</v>
       </c>
@@ -11149,7 +11166,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="152" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="152" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ152" s="2">
         <v>17.29</v>
       </c>
@@ -11157,7 +11174,7 @@
         <v>24.07</v>
       </c>
     </row>
-    <row r="153" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="153" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ153" s="2">
         <v>17.559999999999999</v>
       </c>
@@ -11165,7 +11182,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="154" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="154" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ154" s="2">
         <v>17.510000000000002</v>
       </c>
@@ -11173,7 +11190,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="155" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="155" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ155" s="2">
         <v>17.62</v>
       </c>
@@ -11181,7 +11198,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="156" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="156" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ156" s="2">
         <v>17.75</v>
       </c>
@@ -11189,7 +11206,7 @@
         <v>24.15</v>
       </c>
     </row>
-    <row r="157" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="157" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ157" s="2">
         <v>17.850000000000001</v>
       </c>
@@ -11197,7 +11214,7 @@
         <v>24.27</v>
       </c>
     </row>
-    <row r="158" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="158" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ158" s="2">
         <v>18.09</v>
       </c>
@@ -11205,7 +11222,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="159" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="159" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ159" s="2">
         <v>18.14</v>
       </c>
@@ -11213,7 +11230,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="160" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="160" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ160" s="2">
         <v>18.32</v>
       </c>
@@ -11221,7 +11238,7 @@
         <v>24.15</v>
       </c>
     </row>
-    <row r="161" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="161" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ161" s="2">
         <v>18.440000000000001</v>
       </c>
@@ -11229,7 +11246,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="162" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="162" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ162" s="2">
         <v>18.440000000000001</v>
       </c>
@@ -11237,7 +11254,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="163" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="163" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ163" s="2">
         <v>18.7</v>
       </c>
@@ -11245,7 +11262,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="164" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="164" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ164" s="2">
         <v>18.73</v>
       </c>
@@ -11253,7 +11270,7 @@
         <v>23.78</v>
       </c>
     </row>
-    <row r="165" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="165" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ165" s="2">
         <v>18.53</v>
       </c>
@@ -11261,7 +11278,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="166" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="166" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ166" s="2">
         <v>18.62</v>
       </c>
@@ -11269,7 +11286,7 @@
         <v>23.41</v>
       </c>
     </row>
-    <row r="167" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="167" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ167" s="2">
         <v>18.88</v>
       </c>
@@ -11277,7 +11294,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="168" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="168" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ168" s="2">
         <v>19.010000000000002</v>
       </c>
@@ -11285,7 +11302,7 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="169" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="169" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ169" s="2">
         <v>18.93</v>
       </c>
@@ -11293,7 +11310,7 @@
         <v>23.03</v>
       </c>
     </row>
-    <row r="170" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="170" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ170" s="2">
         <v>18.95</v>
       </c>
@@ -11301,7 +11318,7 @@
         <v>22.76</v>
       </c>
     </row>
-    <row r="171" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="171" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ171" s="2">
         <v>19.2</v>
       </c>
@@ -11309,7 +11326,7 @@
         <v>22.57</v>
       </c>
     </row>
-    <row r="172" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="172" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ172" s="2">
         <v>19.149999999999999</v>
       </c>
@@ -11317,7 +11334,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="173" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="173" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ173" s="2">
         <v>19.350000000000001</v>
       </c>
@@ -11325,7 +11342,7 @@
         <v>22.13</v>
       </c>
     </row>
-    <row r="174" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="174" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ174" s="2">
         <v>19.41</v>
       </c>
@@ -11333,7 +11350,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="175" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="175" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ175" s="2">
         <v>19.29</v>
       </c>
@@ -11341,7 +11358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="176" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ176" s="2">
         <v>19.39</v>
       </c>
@@ -11349,7 +11366,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="177" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="177" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ177" s="2">
         <v>19.600000000000001</v>
       </c>
@@ -11357,7 +11374,7 @@
         <v>21.55</v>
       </c>
     </row>
-    <row r="178" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="178" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ178" s="2">
         <v>19.7</v>
       </c>
@@ -11365,7 +11382,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="179" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="179" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ179" s="2">
         <v>19.91</v>
       </c>
@@ -11373,7 +11390,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="180" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="180" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ180" s="2">
         <v>20.059999999999999</v>
       </c>
@@ -11381,7 +11398,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="181" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="181" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ181" s="2">
         <v>20.079999999999998</v>
       </c>
@@ -11389,7 +11406,7 @@
         <v>21.09</v>
       </c>
     </row>
-    <row r="182" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="182" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ182" s="2">
         <v>20.2</v>
       </c>
@@ -11397,7 +11414,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="183" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="183" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ183" s="2">
         <v>19.62</v>
       </c>
@@ -11405,7 +11422,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="184" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="184" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ184" s="2">
         <v>20.12</v>
       </c>
@@ -11413,7 +11430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="185" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ185" s="2">
         <v>19.53</v>
       </c>
@@ -11421,7 +11438,7 @@
         <v>19.53</v>
       </c>
     </row>
-    <row r="186" spans="43:44" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="186" spans="43:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="AQ186" s="2">
         <v>19.28</v>
       </c>
@@ -11438,27 +11455,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C95E23A-21CD-408C-A5D1-9E386EC0EC9F}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F36" sqref="F36"/>
+      <selection pane="topRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.52734375" customWidth="1"/>
-    <col min="2" max="2" width="11.1171875" customWidth="1"/>
-    <col min="4" max="4" width="14.46875" customWidth="1"/>
-    <col min="5" max="5" width="25.3515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="21.52734375" customWidth="1"/>
-    <col min="10" max="10" width="11.87890625" customWidth="1"/>
-    <col min="11" max="11" width="11.1171875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11511,15 +11528,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>20</v>
+      <c r="E2" t="s">
+        <v>306</v>
       </c>
       <c r="F2" t="s">
         <v>271</v>
@@ -11559,7 +11576,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>270</v>
       </c>
@@ -11569,8 +11586,8 @@
       <c r="D3" t="s">
         <v>287</v>
       </c>
-      <c r="E3">
-        <v>9</v>
+      <c r="E3" t="s">
+        <v>306</v>
       </c>
       <c r="F3" t="s">
         <v>256</v>
@@ -11610,15 +11627,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>266</v>
       </c>
       <c r="D4" t="s">
         <v>287</v>
       </c>
-      <c r="E4">
-        <v>0.2</v>
+      <c r="E4" t="s">
+        <v>306</v>
       </c>
       <c r="F4" t="s">
         <v>265</v>
@@ -11658,15 +11675,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>287</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>304</v>
       </c>
       <c r="F5" t="s">
         <v>202</v>
@@ -11706,7 +11723,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -11716,8 +11733,8 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>16</v>
+      <c r="E6" t="s">
+        <v>305</v>
       </c>
       <c r="F6" t="s">
         <v>262</v>
@@ -11757,7 +11774,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -11767,8 +11784,8 @@
       <c r="D7" t="s">
         <v>288</v>
       </c>
-      <c r="E7">
-        <v>30</v>
+      <c r="E7" t="s">
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>259</v>
@@ -11808,7 +11825,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -11818,8 +11835,8 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>306</v>
       </c>
       <c r="F8" t="s">
         <v>211</v>
@@ -11859,7 +11876,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -11869,8 +11886,8 @@
       <c r="D9" t="s">
         <v>288</v>
       </c>
-      <c r="E9">
-        <v>35</v>
+      <c r="E9" t="s">
+        <v>305</v>
       </c>
       <c r="F9" t="s">
         <v>253</v>
@@ -11910,7 +11927,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -11920,8 +11937,8 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>12</v>
+      <c r="E10" t="s">
+        <v>306</v>
       </c>
       <c r="F10" t="s">
         <v>251</v>
@@ -11961,7 +11978,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -11971,8 +11988,8 @@
       <c r="D11" t="s">
         <v>287</v>
       </c>
-      <c r="E11">
-        <v>0.2</v>
+      <c r="E11" t="s">
+        <v>303</v>
       </c>
       <c r="F11" t="s">
         <v>247</v>
@@ -12009,7 +12026,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -12019,8 +12036,8 @@
       <c r="D12" t="s">
         <v>287</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>304</v>
       </c>
       <c r="F12" t="s">
         <v>248</v>
@@ -12060,7 +12077,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>246</v>
       </c>
@@ -12070,8 +12087,8 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>45</v>
+      <c r="E13" t="s">
+        <v>305</v>
       </c>
       <c r="F13" t="s">
         <v>244</v>
@@ -12111,7 +12128,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -12121,8 +12138,8 @@
       <c r="D14" t="s">
         <v>291</v>
       </c>
-      <c r="E14">
-        <v>2</v>
+      <c r="E14" t="s">
+        <v>305</v>
       </c>
       <c r="F14" t="s">
         <v>242</v>
@@ -12162,7 +12179,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -12172,8 +12189,8 @@
       <c r="D15" t="s">
         <v>290</v>
       </c>
-      <c r="E15">
-        <v>0.1</v>
+      <c r="E15" t="s">
+        <v>307</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>238</v>
@@ -12213,7 +12230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -12223,8 +12240,8 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>7</v>
+      <c r="E16" t="s">
+        <v>307</v>
       </c>
       <c r="F16" t="s">
         <v>235</v>
@@ -12264,7 +12281,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -12274,8 +12291,8 @@
       <c r="D17" t="s">
         <v>287</v>
       </c>
-      <c r="E17">
-        <v>0.04</v>
+      <c r="E17" t="s">
+        <v>304</v>
       </c>
       <c r="F17" t="s">
         <v>202</v>
@@ -12315,7 +12332,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -12325,8 +12342,8 @@
       <c r="D18" t="s">
         <v>287</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>306</v>
       </c>
       <c r="F18" t="s">
         <v>227</v>
@@ -12366,7 +12383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -12376,8 +12393,8 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19">
-        <v>25000</v>
+      <c r="E19" t="s">
+        <v>308</v>
       </c>
       <c r="F19" t="s">
         <v>215</v>
@@ -12417,7 +12434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -12427,8 +12444,8 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20">
-        <v>0.02</v>
+      <c r="E20" t="s">
+        <v>304</v>
       </c>
       <c r="F20" t="s">
         <v>227</v>
@@ -12468,7 +12485,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -12478,8 +12495,8 @@
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>14</v>
+      <c r="E21" t="s">
+        <v>306</v>
       </c>
       <c r="F21" t="s">
         <v>221</v>
@@ -12519,7 +12536,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -12532,8 +12549,8 @@
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>11</v>
+      <c r="E22" t="s">
+        <v>306</v>
       </c>
       <c r="F22" t="s">
         <v>218</v>
@@ -12573,7 +12590,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -12583,8 +12600,8 @@
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>28</v>
+      <c r="E23" t="s">
+        <v>305</v>
       </c>
       <c r="F23" t="s">
         <v>215</v>
@@ -12624,7 +12641,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -12634,8 +12651,8 @@
       <c r="D24" t="s">
         <v>290</v>
       </c>
-      <c r="E24">
-        <v>160</v>
+      <c r="E24" t="s">
+        <v>305</v>
       </c>
       <c r="F24" t="s">
         <v>211</v>
@@ -12675,7 +12692,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -12685,8 +12702,8 @@
       <c r="D25" t="s">
         <v>287</v>
       </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>304</v>
       </c>
       <c r="F25" t="s">
         <v>202</v>
@@ -12726,12 +12743,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>204</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>306</v>
       </c>
       <c r="H26" t="s">
         <v>203</v>
